--- a/TP2B/Documentacion/AnalisisRendimiento.xlsx
+++ b/TP2B/Documentacion/AnalisisRendimiento.xlsx
@@ -2,21 +2,21 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="Hoja3" sheetId="3" r:id="rId3"/>
+    <sheet name="ORDENADOS" sheetId="1" r:id="rId1"/>
+    <sheet name="ORDEN INVERSO" sheetId="9" r:id="rId2"/>
+    <sheet name="ALEATORIO" sheetId="10" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
   <si>
     <t>DATOS DEL EQUIPO DE PRUEBAS</t>
   </si>
@@ -39,29 +39,50 @@
     <t>Microsoft Windows 7 PRO SP1 x64 bits</t>
   </si>
   <si>
-    <t>Tiempo (ms)</t>
+    <t>TP2B ORDENADORA - ANALISIS DE RENDIMIENTO</t>
   </si>
   <si>
-    <t>TP2 SEL - ANALISIS DE RENDIMIENTO</t>
+    <t>DIMENSION</t>
   </si>
   <si>
-    <t>Dimension</t>
+    <t>BURBUJA</t>
   </si>
   <si>
-    <t>ENTRADA ORDENADA</t>
+    <t>INSERCION</t>
   </si>
   <si>
-    <t>ENTRADA ORDEN INVERSO</t>
+    <t>SELECCION</t>
   </si>
   <si>
-    <t>ENTRADA ALEATORIA</t>
+    <t>INSERCION CON CENTINELA</t>
+  </si>
+  <si>
+    <t>SHELL</t>
+  </si>
+  <si>
+    <t>QUICKSORT</t>
+  </si>
+  <si>
+    <t>FUSION</t>
+  </si>
+  <si>
+    <t>ELEMENTALES</t>
+  </si>
+  <si>
+    <t>NO ELEMENTALES</t>
+  </si>
+  <si>
+    <t>ELEMENTOS INT</t>
+  </si>
+  <si>
+    <t>TIEMPO (ms)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -84,6 +105,22 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -100,24 +137,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.79998168889431442"/>
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.79998168889431442"/>
+        <fgColor theme="8" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -135,15 +172,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -179,46 +207,45 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -232,6 +259,3275 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>RENDIMIENTO CON ELEMENTOS ORDENADOS</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ORDENADOS!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BURBUJA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ORDENADOS!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ORDENADOS!$E$5:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>327</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2249</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8020</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ORDENADOS!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SELECCION</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ORDENADOS!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ORDENADOS!$F$5:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>297</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1858</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6873</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ORDENADOS!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INSERCION</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ORDENADOS!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ORDENADOS!$G$5:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ORDENADOS!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INSERCION CON CENTINELA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ORDENADOS!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ORDENADOS!$H$5:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ORDENADOS!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHELL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ORDENADOS!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ORDENADOS!$I$5:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ORDENADOS!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QUICKSORT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ORDENADOS!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ORDENADOS!$J$5:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ORDENADOS!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FUSION</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ORDENADOS!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ORDENADOS!$K$5:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="146609280"/>
+        <c:axId val="121372032"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="146609280"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>DIMENSION</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="121372032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="121372032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>TIEMPO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="146609280"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>RENDIEMIENTO CON ELEMENTOS EN</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-AR" baseline="0"/>
+              <a:t> ORDEN INVERSO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ORDEN INVERSO'!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BURBUJA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ORDEN INVERSO'!$E$5:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>250</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>986</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6033</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>24290</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ORDEN INVERSO'!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SELECCION</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ORDEN INVERSO'!$F$5:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>265</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1779</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6851</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ORDEN INVERSO'!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INSERCION</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ORDEN INVERSO'!$G$5:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ORDEN INVERSO'!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INSERCION CON CENTINELA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ORDEN INVERSO'!$H$5:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ORDEN INVERSO'!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHELL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ORDEN INVERSO'!$I$5:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ORDEN INVERSO'!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QUICKSORT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ORDEN INVERSO'!$J$5:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'ORDEN INVERSO'!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FUSION</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'ORDEN INVERSO'!$K$5:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="124805504"/>
+        <c:axId val="124807040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="124805504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>DIMENSION</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124807040"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="124807040"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>TIEMPO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="124805504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="es-AR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-AR"/>
+              <a:t>RENDIMIENTO CON ORDEN ALEATORIO</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ALEATORIO!$E$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>BURBUJA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ALEATORIO!$E$5:$E$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>218</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>280</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>454</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1841</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>12472</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53218</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ALEATORIO!$F$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SELECCION</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ALEATORIO!$F$5:$F$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2496</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>10660</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ALEATORIO!$G$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INSERCION</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ALEATORIO!$G$5:$G$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ALEATORIO!$H$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>INSERCION CON CENTINELA</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ALEATORIO!$H$5:$H$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ALEATORIO!$I$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SHELL</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ALEATORIO!$I$5:$I$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ALEATORIO!$J$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>QUICKSORT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ALEATORIO!$J$5:$J$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>ALEATORIO!$K$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FUSION</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:xVal>
+            <c:numRef>
+              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6000</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>8000</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>20000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>100000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>ALEATORIO!$K$5:$K$20</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>31</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="150080128"/>
+        <c:axId val="150880640"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="150080128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>DIMENSION</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150880640"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="150880640"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-AR"/>
+                  <a:t>TIEMPO</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="es-AR" baseline="0"/>
+                  <a:t> (ms)</a:t>
+                </a:r>
+                <a:endParaRPr lang="es-AR"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="150080128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="6 Gráfico"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>78440</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>23531</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>134471</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="1 Gráfico"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -521,10 +3817,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J14"/>
+  <sheetPr codeName="Hoja1"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E52" sqref="E52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -532,266 +3829,1623 @@
     <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.7109375" customWidth="1"/>
-    <col min="4" max="9" width="12.7109375" customWidth="1"/>
+    <col min="4" max="11" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4"/>
+      <c r="D4" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-      <c r="G1" s="4"/>
-      <c r="H1" s="4"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="4"/>
-    </row>
-    <row r="2" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
-      <c r="C2" s="14"/>
-      <c r="D2" s="15"/>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="14"/>
-    </row>
-    <row r="3" spans="1:10" s="6" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="3"/>
-      <c r="C3"/>
-      <c r="D3" s="7" t="s">
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9" t="s">
+      <c r="H4" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="13"/>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="I4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="I4" s="11" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="D5" s="14">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>16</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="1">
-        <v>10</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>10</v>
-      </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1">
-        <v>10</v>
-      </c>
-      <c r="I5" s="1"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="D6" s="14">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="1">
-        <v>50</v>
-      </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>50</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1">
-        <v>50</v>
-      </c>
-      <c r="I6" s="1"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D7" s="1">
-        <v>100</v>
-      </c>
-      <c r="E7" s="1"/>
+      <c r="D7" s="14">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
       <c r="F7" s="1">
-        <v>100</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
       <c r="H7" s="1">
-        <v>100</v>
-      </c>
-      <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D8" s="1">
-        <v>300</v>
-      </c>
-      <c r="E8" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>31</v>
+      </c>
       <c r="F8" s="1">
-        <v>300</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
       <c r="H8" s="1">
-        <v>300</v>
-      </c>
-      <c r="I8" s="1"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D9" s="1">
-        <v>500</v>
-      </c>
-      <c r="E9" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
       <c r="F9" s="1">
-        <v>500</v>
-      </c>
-      <c r="G9" s="1"/>
+        <v>31</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
       <c r="H9" s="1">
-        <v>500</v>
-      </c>
-      <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D10" s="1">
-        <v>700</v>
-      </c>
-      <c r="E10" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="14">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>16</v>
+      </c>
       <c r="F10" s="1">
-        <v>700</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
       <c r="H10" s="1">
-        <v>700</v>
-      </c>
-      <c r="I10" s="1"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D11" s="1">
-        <v>900</v>
-      </c>
-      <c r="E11" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="14">
+        <v>3000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>1</v>
+      </c>
       <c r="F11" s="1">
-        <v>900</v>
-      </c>
-      <c r="G11" s="1"/>
+        <v>17</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
       <c r="H11" s="1">
-        <v>900</v>
-      </c>
-      <c r="I11" s="1"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="E12" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>16</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="14">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>16</v>
+      </c>
       <c r="F12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="G12" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
       <c r="H12" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I12" s="1"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D13" s="1">
-        <v>1300</v>
-      </c>
-      <c r="E13" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>31</v>
+      </c>
       <c r="F13" s="1">
-        <v>1300</v>
-      </c>
-      <c r="G13" s="1"/>
+        <v>16</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
       <c r="H13" s="1">
-        <v>1300</v>
-      </c>
-      <c r="I13" s="1"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="D14" s="1">
-        <v>1500</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="14">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>47</v>
+      </c>
       <c r="F14" s="1">
-        <v>1500</v>
-      </c>
-      <c r="G14" s="1"/>
+        <v>15</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
       <c r="H14" s="1">
-        <v>1500</v>
-      </c>
-      <c r="I14" s="1"/>
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>16</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="14">
+        <v>7000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>31</v>
+      </c>
+      <c r="F15" s="1">
+        <v>47</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="14">
+        <v>8000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>47</v>
+      </c>
+      <c r="F16" s="1">
+        <v>47</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>78</v>
+      </c>
+      <c r="F17" s="1">
+        <v>78</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="14">
+        <v>20000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>327</v>
+      </c>
+      <c r="F18" s="1">
+        <v>297</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="14">
+        <v>50000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>2249</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1858</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="14">
+        <v>100000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>8020</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6873</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>16</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="E2:K2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Hoja2"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="11" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4"/>
+      <c r="D4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>16</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>16</v>
+      </c>
+      <c r="F8" s="1">
+        <v>0</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>15</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="14">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>16</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="14">
+        <v>3000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="14">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>63</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>15</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>110</v>
+      </c>
+      <c r="F13" s="1">
+        <v>31</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="14">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>109</v>
+      </c>
+      <c r="F14" s="1">
+        <v>31</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>0</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="14">
+        <v>7000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>125</v>
+      </c>
+      <c r="F15" s="1">
+        <v>31</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="14">
+        <v>8000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>156</v>
+      </c>
+      <c r="F16" s="1">
+        <v>31</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>16</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>250</v>
+      </c>
+      <c r="F17" s="1">
+        <v>62</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="14">
+        <v>20000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>986</v>
+      </c>
+      <c r="F18" s="1">
+        <v>265</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="14">
+        <v>50000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>6033</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1779</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>0</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="14">
+        <v>100000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>24290</v>
+      </c>
+      <c r="F20" s="1">
+        <v>6851</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <sheetPr codeName="Hoja3"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F53" sqref="F53"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.7109375" customWidth="1"/>
+    <col min="4" max="11" width="15.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="8"/>
+      <c r="K1" s="8"/>
+    </row>
+    <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+    </row>
+    <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
+      <c r="D3" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
+      <c r="I3" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+    </row>
+    <row r="4" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4"/>
+      <c r="D4" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="I4" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="J4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="K4" s="12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="14">
+        <v>10</v>
+      </c>
+      <c r="E5" s="1">
+        <v>15</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D6" s="14">
+        <v>100</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D7" s="14">
+        <v>500</v>
+      </c>
+      <c r="E7" s="1">
+        <v>1</v>
+      </c>
+      <c r="F7" s="1">
+        <v>0</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>0</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="14">
+        <v>1000</v>
+      </c>
+      <c r="E8" s="1">
+        <v>31</v>
+      </c>
+      <c r="F8" s="1">
+        <v>16</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>0</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="14">
+        <v>1500</v>
+      </c>
+      <c r="E9" s="1">
+        <v>16</v>
+      </c>
+      <c r="F9" s="1">
+        <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>0</v>
+      </c>
+      <c r="J9" s="1">
+        <v>0</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="14">
+        <v>2000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>31</v>
+      </c>
+      <c r="F10" s="1">
+        <v>0</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>0</v>
+      </c>
+      <c r="J10" s="1">
+        <v>0</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="14">
+        <v>3000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>47</v>
+      </c>
+      <c r="F11" s="1">
+        <v>15</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>0</v>
+      </c>
+      <c r="J11" s="1">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="14">
+        <v>4000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>94</v>
+      </c>
+      <c r="F12" s="1">
+        <v>0</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>0</v>
+      </c>
+      <c r="I12" s="1">
+        <v>0</v>
+      </c>
+      <c r="J12" s="1">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="14">
+        <v>5000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>125</v>
+      </c>
+      <c r="F13" s="1">
+        <v>16</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>0</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>0</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="14">
+        <v>6000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>156</v>
+      </c>
+      <c r="F14" s="1">
+        <v>16</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1">
+        <v>15</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>0</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="14">
+        <v>7000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>218</v>
+      </c>
+      <c r="F15" s="1">
+        <v>32</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>0</v>
+      </c>
+      <c r="K15" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="14">
+        <v>8000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>280</v>
+      </c>
+      <c r="F16" s="1">
+        <v>47</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1">
+        <v>0</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>0</v>
+      </c>
+      <c r="K16" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="14">
+        <v>10000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>454</v>
+      </c>
+      <c r="F17" s="1">
+        <v>62</v>
+      </c>
+      <c r="G17" s="1">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>0</v>
+      </c>
+      <c r="J17" s="1">
+        <v>0</v>
+      </c>
+      <c r="K17" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="14">
+        <v>20000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>1841</v>
+      </c>
+      <c r="F18" s="1">
+        <v>328</v>
+      </c>
+      <c r="G18" s="1">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>0</v>
+      </c>
+      <c r="J18" s="1">
+        <v>0</v>
+      </c>
+      <c r="K18" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D19" s="14">
+        <v>50000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>12472</v>
+      </c>
+      <c r="F19" s="1">
+        <v>2496</v>
+      </c>
+      <c r="G19" s="1">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1">
+        <v>0</v>
+      </c>
+      <c r="I19" s="1">
+        <v>15</v>
+      </c>
+      <c r="J19" s="1">
+        <v>0</v>
+      </c>
+      <c r="K19" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D20" s="14">
+        <v>100000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>53218</v>
+      </c>
+      <c r="F20" s="1">
+        <v>10660</v>
+      </c>
+      <c r="G20" s="1">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1">
+        <v>0</v>
+      </c>
+      <c r="I20" s="1">
+        <v>0</v>
+      </c>
+      <c r="J20" s="1">
+        <v>0</v>
+      </c>
+      <c r="K20" s="1">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:K1"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="I3:K3"/>
+    <mergeCell ref="A4:B4"/>
+    <mergeCell ref="E2:K2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="80" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/TP2B/Documentacion/AnalisisRendimiento.xlsx
+++ b/TP2B/Documentacion/AnalisisRendimiento.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
   <si>
     <t>DATOS DEL EQUIPO DE PRUEBAS</t>
   </si>
@@ -77,12 +77,19 @@
   <si>
     <t>TIEMPO (ms)</t>
   </si>
+  <si>
+    <t>stackOverflow</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="2">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -117,6 +124,20 @@
       <b/>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -204,10 +225,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -215,26 +237,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -242,13 +249,30 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -257,6 +281,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -264,7 +291,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -316,10 +343,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>ORDENADOS!$D$5:$D$20</c:f>
+              <c:f>ORDENADOS!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -327,45 +354,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -373,57 +394,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ORDENADOS!$E$5:$E$20</c:f>
+              <c:f>ORDENADOS!$E$5:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>16</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>23</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1</c:v>
+                  <c:v>35</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>16</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>54</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>47</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>85</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78</c:v>
+                  <c:v>2018</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>327</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2249</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>8020</c:v>
+                  <c:v>8247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -446,10 +461,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>ORDENADOS!$D$5:$D$20</c:f>
+              <c:f>ORDENADOS!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -457,45 +472,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -503,57 +512,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ORDENADOS!$F$5:$F$20</c:f>
+              <c:f>ORDENADOS!$F$5:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>17</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>47</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>78</c:v>
+                  <c:v>1762</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>297</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1858</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6873</c:v>
+                  <c:v>7077</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -576,10 +579,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>ORDENADOS!$D$5:$D$20</c:f>
+              <c:f>ORDENADOS!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -587,45 +590,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -633,12 +630,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ORDENADOS!$G$5:$G$20</c:f>
+              <c:f>ORDENADOS!$G$5:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -653,36 +650,30 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -706,10 +697,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>ORDENADOS!$D$5:$D$20</c:f>
+              <c:f>ORDENADOS!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -717,45 +708,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -763,10 +748,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ORDENADOS!$H$5:$H$20</c:f>
+              <c:f>ORDENADOS!$H$5:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -780,7 +765,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
@@ -789,31 +774,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -836,10 +815,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>ORDENADOS!$D$5:$D$20</c:f>
+              <c:f>ORDENADOS!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -847,45 +826,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -893,10 +866,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ORDENADOS!$I$5:$I$20</c:f>
+              <c:f>ORDENADOS!$I$5:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -904,46 +877,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>16</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -966,10 +933,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>ORDENADOS!$D$5:$D$20</c:f>
+              <c:f>ORDENADOS!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -977,45 +944,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1023,56 +984,50 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ORDENADOS!$J$5:$J$20</c:f>
+              <c:f>ORDENADOS!$J$5:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>26</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>14</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>29</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>69</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -1096,10 +1051,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>ORDENADOS!$D$5:$D$20</c:f>
+              <c:f>ORDENADOS!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1107,45 +1062,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1153,57 +1102,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ORDENADOS!$K$5:$K$20</c:f>
+              <c:f>ORDENADOS!$K$5:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1218,11 +1161,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="146609280"/>
-        <c:axId val="121372032"/>
+        <c:axId val="150810992"/>
+        <c:axId val="150811552"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="146609280"/>
+        <c:axId val="150810992"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1247,16 +1190,16 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="121372032"/>
+        <c:crossAx val="150811552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="121372032"/>
+        <c:axId val="150811552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1291,7 +1234,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="146609280"/>
+        <c:crossAx val="150810992"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1316,7 +1259,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1372,10 +1315,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
+              <c:f>'ORDEN INVERSO'!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1383,45 +1326,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1429,57 +1366,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ORDEN INVERSO'!$E$5:$E$20</c:f>
+              <c:f>'ORDEN INVERSO'!$E$5:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>16</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>46</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>16</c:v>
+                  <c:v>66</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>99</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>110</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>109</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>125</c:v>
+                  <c:v>248</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>156</c:v>
+                  <c:v>965</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>250</c:v>
+                  <c:v>6042</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>986</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>6033</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>24290</c:v>
+                  <c:v>24301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1502,10 +1433,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
+              <c:f>'ORDEN INVERSO'!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1513,45 +1444,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1559,57 +1484,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ORDEN INVERSO'!$F$5:$F$20</c:f>
+              <c:f>'ORDEN INVERSO'!$F$5:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>15</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>27</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31</c:v>
+                  <c:v>282</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>62</c:v>
+                  <c:v>1755</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>265</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1779</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>6851</c:v>
+                  <c:v>7206</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1632,10 +1551,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
+              <c:f>'ORDEN INVERSO'!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1643,45 +1562,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1689,10 +1602,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ORDEN INVERSO'!$G$5:$G$20</c:f>
+              <c:f>'ORDEN INVERSO'!$G$5:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1703,43 +1616,37 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1762,10 +1669,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
+              <c:f>'ORDEN INVERSO'!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1773,45 +1680,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1819,10 +1720,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ORDEN INVERSO'!$H$5:$H$20</c:f>
+              <c:f>'ORDEN INVERSO'!$H$5:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -1836,40 +1737,34 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>15</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>16</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1892,10 +1787,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
+              <c:f>'ORDEN INVERSO'!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -1903,45 +1798,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -1949,39 +1838,39 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ORDEN INVERSO'!$I$5:$I$20</c:f>
+              <c:f>'ORDEN INVERSO'!$I$5:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>16</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
@@ -1990,16 +1879,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2022,10 +1905,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
+              <c:f>'ORDEN INVERSO'!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2033,45 +1916,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2079,42 +1956,42 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ORDEN INVERSO'!$J$5:$J$20</c:f>
+              <c:f>'ORDEN INVERSO'!$J$5:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>11</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>60</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>0</c:v>
@@ -2123,12 +2000,6 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -2152,10 +2023,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
+              <c:f>'ORDEN INVERSO'!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2163,45 +2034,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2209,10 +2074,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'ORDEN INVERSO'!$K$5:$K$20</c:f>
+              <c:f>'ORDEN INVERSO'!$K$5:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2220,46 +2085,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>15</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>13</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2274,11 +2133,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="124805504"/>
-        <c:axId val="124807040"/>
+        <c:axId val="151035312"/>
+        <c:axId val="151035872"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="124805504"/>
+        <c:axId val="151035312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2303,16 +2162,16 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124807040"/>
+        <c:crossAx val="151035872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="124807040"/>
+        <c:axId val="151035872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2347,7 +2206,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="124805504"/>
+        <c:crossAx val="151035312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2372,7 +2231,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-AR"/>
+  <c:lang val="es-ES"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2424,10 +2283,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:f>ALEATORIO!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2435,45 +2294,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2481,57 +2334,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ALEATORIO!$E$5:$E$20</c:f>
+              <c:f>ALEATORIO!$E$5:$E$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>15</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1</c:v>
+                  <c:v>16</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>86</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>47</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94</c:v>
+                  <c:v>174</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>125</c:v>
+                  <c:v>233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>156</c:v>
+                  <c:v>309</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>218</c:v>
+                  <c:v>488</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>280</c:v>
+                  <c:v>2036</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>454</c:v>
+                  <c:v>14328</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1841</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>12472</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>53218</c:v>
+                  <c:v>56748</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2554,10 +2401,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:f>ALEATORIO!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2565,45 +2412,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2611,57 +2452,51 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ALEATORIO!$F$5:$F$20</c:f>
+              <c:f>ALEATORIO!$F$5:$F$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="6">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>15</c:v>
-                </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>24</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>16</c:v>
+                  <c:v>33</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>16</c:v>
+                  <c:v>44</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32</c:v>
+                  <c:v>71</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>47</c:v>
+                  <c:v>440</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>62</c:v>
+                  <c:v>2993</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>328</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2496</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10660</c:v>
+                  <c:v>11467</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2684,10 +2519,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:f>ALEATORIO!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2695,45 +2530,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2741,10 +2570,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ALEATORIO!$G$5:$G$20</c:f>
+              <c:f>ALEATORIO!$G$5:$G$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2761,37 +2590,31 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2814,10 +2637,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:f>ALEATORIO!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2825,45 +2648,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -2871,10 +2688,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ALEATORIO!$H$5:$H$20</c:f>
+              <c:f>ALEATORIO!$H$5:$H$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -2885,7 +2702,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>0</c:v>
@@ -2897,31 +2714,25 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>15</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2944,10 +2755,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:f>ALEATORIO!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -2955,45 +2766,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3001,10 +2806,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ALEATORIO!$I$5:$I$20</c:f>
+              <c:f>ALEATORIO!$I$5:$I$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3015,22 +2820,22 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>0</c:v>
@@ -3039,19 +2844,13 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3074,10 +2873,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:f>ALEATORIO!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3085,45 +2884,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3131,56 +2924,50 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ALEATORIO!$J$5:$J$20</c:f>
+              <c:f>ALEATORIO!$J$5:$J$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>17</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>25</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
@@ -3204,10 +2991,10 @@
           </c:tx>
           <c:xVal>
             <c:numRef>
-              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:f>ALEATORIO!$D$5:$D$18</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3215,45 +3002,39 @@
                   <c:v>100</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>500</c:v>
+                  <c:v>1000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1500</c:v>
+                  <c:v>3000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>2000</c:v>
+                  <c:v>4000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>3000</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>5000</c:v>
+                  <c:v>7000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>6000</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>7000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>8000</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>10000</c:v>
+                  <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20000</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>50000</c:v>
-                </c:pt>
-                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
@@ -3261,10 +3042,10 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>ALEATORIO!$K$5:$K$20</c:f>
+              <c:f>ALEATORIO!$K$5:$K$18</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="14"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3272,46 +3053,40 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="13">
                   <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>31</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3326,11 +3101,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150080128"/>
-        <c:axId val="150880640"/>
+        <c:axId val="151246896"/>
+        <c:axId val="151247456"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150080128"/>
+        <c:axId val="151246896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3355,16 +3130,16 @@
           <c:layout/>
           <c:overlay val="0"/>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150880640"/>
+        <c:crossAx val="151247456"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150880640"/>
+        <c:axId val="151247456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3399,7 +3174,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150080128"/>
+        <c:crossAx val="151246896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3573,7 +3348,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3608,7 +3383,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -3818,10 +3593,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja1"/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3833,25 +3608,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
@@ -3866,49 +3641,49 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="11" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
       <c r="C4"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -3919,17 +3694,17 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H5" s="1">
         <v>0</v>
@@ -3938,10 +3713,10 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
@@ -3951,14 +3726,14 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>100</v>
       </c>
       <c r="E6" s="1">
         <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G6" s="1">
         <v>0</v>
@@ -3983,14 +3758,14 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="14">
-        <v>500</v>
+      <c r="D7" s="10">
+        <v>1000</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -3999,24 +3774,24 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="14">
-        <v>1000</v>
+      <c r="D8" s="10">
+        <v>2000</v>
       </c>
       <c r="E8" s="1">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F8" s="1">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -4025,325 +3800,273 @@
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="14">
-        <v>1500</v>
+      <c r="D9" s="10">
+        <v>3000</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F9" s="1">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="14">
-        <v>2000</v>
+      <c r="D10" s="10">
+        <v>4000</v>
       </c>
       <c r="E10" s="1">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="14">
-        <v>3000</v>
+      <c r="D11" s="10">
+        <v>5000</v>
       </c>
       <c r="E11" s="1">
-        <v>1</v>
+        <v>35</v>
       </c>
       <c r="F11" s="1">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" s="1">
         <v>0</v>
       </c>
       <c r="I11" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="14">
-        <v>4000</v>
+      <c r="D12" s="10">
+        <v>6000</v>
       </c>
       <c r="E12" s="1">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="F12" s="1">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I12" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="14">
-        <v>5000</v>
+      <c r="D13" s="10">
+        <v>7000</v>
       </c>
       <c r="E13" s="1">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="F13" s="1">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="G13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="14">
-        <v>6000</v>
+      <c r="D14" s="10">
+        <v>8000</v>
       </c>
       <c r="E14" s="1">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F14" s="1">
-        <v>15</v>
+        <v>48</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="14">
-        <v>7000</v>
+      <c r="D15" s="10">
+        <v>10000</v>
       </c>
       <c r="E15" s="1">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F15" s="1">
-        <v>47</v>
+        <v>71</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>69</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="14">
-        <v>8000</v>
+      <c r="D16" s="10">
+        <v>20000</v>
       </c>
       <c r="E16" s="1">
-        <v>47</v>
+        <v>324</v>
       </c>
       <c r="F16" s="1">
-        <v>47</v>
+        <v>282</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J16" s="1">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="14">
-        <v>10000</v>
+      <c r="D17" s="10">
+        <v>50000</v>
       </c>
       <c r="E17" s="1">
-        <v>78</v>
+        <v>2018</v>
       </c>
       <c r="F17" s="1">
-        <v>78</v>
+        <v>1762</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
         <v>0</v>
       </c>
-      <c r="J17" s="1">
-        <v>0</v>
+      <c r="J17" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="14">
-        <v>20000</v>
+      <c r="D18" s="10">
+        <v>100000</v>
       </c>
       <c r="E18" s="1">
-        <v>327</v>
+        <v>8247</v>
       </c>
       <c r="F18" s="1">
-        <v>297</v>
+        <v>7077</v>
       </c>
       <c r="G18" s="1">
         <v>0</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="K18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D19" s="14">
-        <v>50000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>2249</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1858</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="14">
-        <v>100000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>8020</v>
-      </c>
-      <c r="F20" s="1">
-        <v>6873</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>16</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -4363,10 +4086,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja2"/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4378,25 +4101,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
@@ -4411,49 +4134,49 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="11" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
       <c r="C4"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -4464,14 +4187,14 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -4480,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="I5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -4496,11 +4219,11 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>100</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>1</v>
@@ -4528,14 +4251,14 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="14">
-        <v>500</v>
+      <c r="D7" s="10">
+        <v>1000</v>
       </c>
       <c r="E7" s="1">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -4544,351 +4267,299 @@
         <v>0</v>
       </c>
       <c r="I7" s="1">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="K7" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D8" s="10">
+        <v>2000</v>
+      </c>
+      <c r="E8" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="14">
-        <v>1000</v>
-      </c>
-      <c r="E8" s="1">
-        <v>16</v>
-      </c>
       <c r="F8" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
       <c r="I8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="14">
-        <v>1500</v>
+      <c r="D9" s="10">
+        <v>3000</v>
       </c>
       <c r="E9" s="1">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="F9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="G9" s="1">
         <v>0</v>
       </c>
       <c r="H9" s="1">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="I9" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J9" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="K9" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="14">
-        <v>2000</v>
+      <c r="D10" s="10">
+        <v>4000</v>
       </c>
       <c r="E10" s="1">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="F10" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="G10" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H10" s="1">
         <v>0</v>
       </c>
       <c r="I10" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J10" s="1">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K10" s="1">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="14">
-        <v>3000</v>
+      <c r="D11" s="10">
+        <v>5000</v>
       </c>
       <c r="E11" s="1">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="F11" s="1">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1">
         <v>0</v>
       </c>
       <c r="H11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="1">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="K11" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="14">
-        <v>4000</v>
+      <c r="D12" s="10">
+        <v>6000</v>
       </c>
       <c r="E12" s="1">
-        <v>63</v>
+        <v>111</v>
       </c>
       <c r="F12" s="1">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="G12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H12" s="1">
         <v>0</v>
       </c>
       <c r="I12" s="1">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="J12" s="1">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="K12" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="14">
-        <v>5000</v>
+      <c r="D13" s="10">
+        <v>7000</v>
       </c>
       <c r="E13" s="1">
-        <v>110</v>
+        <v>122</v>
       </c>
       <c r="F13" s="1">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="G13" s="1">
         <v>0</v>
       </c>
       <c r="H13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I13" s="1">
         <v>0</v>
       </c>
       <c r="J13" s="1">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="K13" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="14">
-        <v>6000</v>
+      <c r="D14" s="10">
+        <v>8000</v>
       </c>
       <c r="E14" s="1">
-        <v>109</v>
+        <v>155</v>
       </c>
       <c r="F14" s="1">
-        <v>31</v>
+        <v>44</v>
       </c>
       <c r="G14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I14" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J14" s="1">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="K14" s="1">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="14">
-        <v>7000</v>
+      <c r="D15" s="10">
+        <v>10000</v>
       </c>
       <c r="E15" s="1">
-        <v>125</v>
+        <v>248</v>
       </c>
       <c r="F15" s="1">
-        <v>31</v>
+        <v>71</v>
       </c>
       <c r="G15" s="1">
         <v>0</v>
       </c>
       <c r="H15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I15" s="1">
         <v>0</v>
       </c>
       <c r="J15" s="1">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="K15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="14">
-        <v>8000</v>
+      <c r="D16" s="10">
+        <v>20000</v>
       </c>
       <c r="E16" s="1">
-        <v>156</v>
+        <v>965</v>
       </c>
       <c r="F16" s="1">
-        <v>31</v>
+        <v>282</v>
       </c>
       <c r="G16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H16" s="1">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="I16" s="1">
         <v>0</v>
       </c>
-      <c r="J16" s="1">
-        <v>0</v>
+      <c r="J16" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="K16" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="14">
-        <v>10000</v>
+      <c r="D17" s="10">
+        <v>50000</v>
       </c>
       <c r="E17" s="1">
-        <v>250</v>
+        <v>6042</v>
       </c>
       <c r="F17" s="1">
-        <v>62</v>
+        <v>1755</v>
       </c>
       <c r="G17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H17" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="K17" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="14">
-        <v>20000</v>
+      <c r="D18" s="10">
+        <v>100000</v>
       </c>
       <c r="E18" s="1">
-        <v>986</v>
+        <v>24301</v>
       </c>
       <c r="F18" s="1">
-        <v>265</v>
+        <v>7206</v>
       </c>
       <c r="G18" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H18" s="1">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
+        <v>2</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="K18" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D19" s="14">
-        <v>50000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>6033</v>
-      </c>
-      <c r="F19" s="1">
-        <v>1779</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>0</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="14">
-        <v>100000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>24290</v>
-      </c>
-      <c r="F20" s="1">
-        <v>6851</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>0</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -4908,10 +4579,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4923,25 +4594,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
-      <c r="I1" s="8"/>
-      <c r="J1" s="8"/>
-      <c r="K1" s="8"/>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+      <c r="H1" s="15"/>
+      <c r="I1" s="15"/>
+      <c r="J1" s="15"/>
+      <c r="K1" s="15"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
       <c r="E2" s="16" t="s">
         <v>19</v>
       </c>
@@ -4956,49 +4627,49 @@
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
-      <c r="I3" s="11" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="13"/>
+      <c r="I3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="6"/>
+      <c r="A4" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="12"/>
       <c r="C4"/>
-      <c r="D4" s="13" t="s">
+      <c r="D4" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F4" s="10" t="s">
+      <c r="F4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="G4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="H4" s="10" t="s">
+      <c r="H4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I4" s="12" t="s">
+      <c r="I4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="12" t="s">
+      <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="K4" s="12" t="s">
+      <c r="K4" s="7" t="s">
         <v>15</v>
       </c>
     </row>
@@ -5009,14 +4680,14 @@
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="14">
+      <c r="D5" s="10">
         <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="F5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" s="1">
         <v>0</v>
@@ -5028,7 +4699,7 @@
         <v>0</v>
       </c>
       <c r="J5" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K5" s="1">
         <v>0</v>
@@ -5041,11 +4712,11 @@
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D6" s="14">
+      <c r="D6" s="10">
         <v>100</v>
       </c>
       <c r="E6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
         <v>0</v>
@@ -5073,14 +4744,14 @@
       <c r="B7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="14">
-        <v>500</v>
+      <c r="D7" s="10">
+        <v>1000</v>
       </c>
       <c r="E7" s="1">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="F7" s="1">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -5092,348 +4763,296 @@
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="K7" s="1">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D8" s="14">
-        <v>1000</v>
+      <c r="D8" s="10">
+        <v>2000</v>
       </c>
       <c r="E8" s="1">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F8" s="1">
+        <v>2</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>21</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D9" s="10">
+        <v>3000</v>
+      </c>
+      <c r="E9" s="1">
+        <v>50</v>
+      </c>
+      <c r="F9" s="1">
+        <v>6</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D10" s="10">
+        <v>4000</v>
+      </c>
+      <c r="E10" s="1">
+        <v>86</v>
+      </c>
+      <c r="F10" s="1">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>7</v>
+      </c>
+      <c r="K10" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D11" s="10">
+        <v>5000</v>
+      </c>
+      <c r="E11" s="1">
+        <v>130</v>
+      </c>
+      <c r="F11" s="1">
         <v>16</v>
       </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>0</v>
-      </c>
-      <c r="J8" s="1">
-        <v>0</v>
-      </c>
-      <c r="K8" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D9" s="14">
-        <v>1500</v>
-      </c>
-      <c r="E9" s="1">
-        <v>16</v>
-      </c>
-      <c r="F9" s="1">
-        <v>0</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>0</v>
-      </c>
-      <c r="J9" s="1">
-        <v>0</v>
-      </c>
-      <c r="K9" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D10" s="14">
-        <v>2000</v>
-      </c>
-      <c r="E10" s="1">
-        <v>31</v>
-      </c>
-      <c r="F10" s="1">
-        <v>0</v>
-      </c>
-      <c r="G10" s="1">
-        <v>0</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>0</v>
-      </c>
-      <c r="J10" s="1">
-        <v>0</v>
-      </c>
-      <c r="K10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D11" s="14">
-        <v>3000</v>
-      </c>
-      <c r="E11" s="1">
-        <v>47</v>
-      </c>
-      <c r="F11" s="1">
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>12</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D12" s="10">
+        <v>6000</v>
+      </c>
+      <c r="E12" s="1">
+        <v>174</v>
+      </c>
+      <c r="F12" s="1">
+        <v>24</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>17</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D13" s="10">
+        <v>7000</v>
+      </c>
+      <c r="E13" s="1">
+        <v>233</v>
+      </c>
+      <c r="F13" s="1">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>2</v>
+      </c>
+      <c r="J13" s="1">
+        <v>25</v>
+      </c>
+      <c r="K13" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D14" s="10">
+        <v>8000</v>
+      </c>
+      <c r="E14" s="1">
+        <v>309</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>32</v>
+      </c>
+      <c r="K14" s="1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D15" s="10">
+        <v>10000</v>
+      </c>
+      <c r="E15" s="1">
+        <v>488</v>
+      </c>
+      <c r="F15" s="1">
+        <v>71</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>49</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="D16" s="10">
+        <v>20000</v>
+      </c>
+      <c r="E16" s="1">
+        <v>2036</v>
+      </c>
+      <c r="F16" s="1">
+        <v>440</v>
+      </c>
+      <c r="G16" s="1">
+        <v>3</v>
+      </c>
+      <c r="H16" s="1">
+        <v>2</v>
+      </c>
+      <c r="I16" s="1">
+        <v>1</v>
+      </c>
+      <c r="J16" s="1">
+        <v>242</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D17" s="10">
+        <v>50000</v>
+      </c>
+      <c r="E17" s="1">
+        <v>14328</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2993</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>3</v>
+      </c>
+      <c r="J17" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K17" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D18" s="10">
+        <v>100000</v>
+      </c>
+      <c r="E18" s="1">
+        <v>56748</v>
+      </c>
+      <c r="F18" s="1">
+        <v>11467</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>4</v>
+      </c>
+      <c r="J18" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="K18" s="1">
         <v>15</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>0</v>
-      </c>
-      <c r="J11" s="1">
-        <v>0</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" s="14">
-        <v>4000</v>
-      </c>
-      <c r="E12" s="1">
-        <v>94</v>
-      </c>
-      <c r="F12" s="1">
-        <v>0</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>0</v>
-      </c>
-      <c r="J12" s="1">
-        <v>0</v>
-      </c>
-      <c r="K12" s="1">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D13" s="14">
-        <v>5000</v>
-      </c>
-      <c r="E13" s="1">
-        <v>125</v>
-      </c>
-      <c r="F13" s="1">
-        <v>16</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>0</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>0</v>
-      </c>
-      <c r="K13" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D14" s="14">
-        <v>6000</v>
-      </c>
-      <c r="E14" s="1">
-        <v>156</v>
-      </c>
-      <c r="F14" s="1">
-        <v>16</v>
-      </c>
-      <c r="G14" s="1">
-        <v>0</v>
-      </c>
-      <c r="H14" s="1">
-        <v>15</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>0</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D15" s="14">
-        <v>7000</v>
-      </c>
-      <c r="E15" s="1">
-        <v>218</v>
-      </c>
-      <c r="F15" s="1">
-        <v>32</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>0</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>0</v>
-      </c>
-      <c r="K15" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D16" s="14">
-        <v>8000</v>
-      </c>
-      <c r="E16" s="1">
-        <v>280</v>
-      </c>
-      <c r="F16" s="1">
-        <v>47</v>
-      </c>
-      <c r="G16" s="1">
-        <v>0</v>
-      </c>
-      <c r="H16" s="1">
-        <v>0</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="1">
-        <v>0</v>
-      </c>
-      <c r="K16" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D17" s="14">
-        <v>10000</v>
-      </c>
-      <c r="E17" s="1">
-        <v>454</v>
-      </c>
-      <c r="F17" s="1">
-        <v>62</v>
-      </c>
-      <c r="G17" s="1">
-        <v>0</v>
-      </c>
-      <c r="H17" s="1">
-        <v>0</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="1">
-        <v>0</v>
-      </c>
-      <c r="K17" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D18" s="14">
-        <v>20000</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1841</v>
-      </c>
-      <c r="F18" s="1">
-        <v>328</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>0</v>
-      </c>
-      <c r="I18" s="1">
-        <v>0</v>
-      </c>
-      <c r="J18" s="1">
-        <v>0</v>
-      </c>
-      <c r="K18" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D19" s="14">
-        <v>50000</v>
-      </c>
-      <c r="E19" s="1">
-        <v>12472</v>
-      </c>
-      <c r="F19" s="1">
-        <v>2496</v>
-      </c>
-      <c r="G19" s="1">
-        <v>0</v>
-      </c>
-      <c r="H19" s="1">
-        <v>0</v>
-      </c>
-      <c r="I19" s="1">
-        <v>15</v>
-      </c>
-      <c r="J19" s="1">
-        <v>0</v>
-      </c>
-      <c r="K19" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D20" s="14">
-        <v>100000</v>
-      </c>
-      <c r="E20" s="1">
-        <v>53218</v>
-      </c>
-      <c r="F20" s="1">
-        <v>10660</v>
-      </c>
-      <c r="G20" s="1">
-        <v>0</v>
-      </c>
-      <c r="H20" s="1">
-        <v>0</v>
-      </c>
-      <c r="I20" s="1">
-        <v>0</v>
-      </c>
-      <c r="J20" s="1">
-        <v>0</v>
-      </c>
-      <c r="K20" s="1">
-        <v>31</v>
       </c>
     </row>
   </sheetData>

--- a/TP2B/Documentacion/AnalisisRendimiento.xlsx
+++ b/TP2B/Documentacion/AnalisisRendimiento.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ORDENADOS" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
   <si>
     <t>DATOS DEL EQUIPO DE PRUEBAS</t>
   </si>
@@ -89,7 +89,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +138,12 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -229,7 +235,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -251,6 +257,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -269,7 +276,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -1161,11 +1168,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="150810992"/>
-        <c:axId val="150811552"/>
+        <c:axId val="159729104"/>
+        <c:axId val="159729664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="150810992"/>
+        <c:axId val="159729104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1194,12 +1201,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150811552"/>
+        <c:crossAx val="159729664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="150811552"/>
+        <c:axId val="159729664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1234,7 +1241,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="150810992"/>
+        <c:crossAx val="159729104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1994,7 +2001,7 @@
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>0</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="12">
                   <c:v>0</c:v>
@@ -2133,11 +2140,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151035312"/>
-        <c:axId val="151035872"/>
+        <c:axId val="160209984"/>
+        <c:axId val="160210544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151035312"/>
+        <c:axId val="160209984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2166,12 +2173,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151035872"/>
+        <c:crossAx val="160210544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151035872"/>
+        <c:axId val="160210544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2206,7 +2213,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151035312"/>
+        <c:crossAx val="160209984"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2965,10 +2972,10 @@
                   <c:v>242</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>0</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>0</c:v>
+                  <c:v>482</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3101,11 +3108,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="151246896"/>
-        <c:axId val="151247456"/>
+        <c:axId val="160408368"/>
+        <c:axId val="160408928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="151246896"/>
+        <c:axId val="160408368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3134,12 +3141,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151247456"/>
+        <c:crossAx val="160408928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="151247456"/>
+        <c:axId val="160408928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3174,7 +3181,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="151246896"/>
+        <c:crossAx val="160408368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3596,7 +3603,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3608,34 +3615,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -3644,23 +3651,23 @@
       <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12"/>
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13"/>
       <c r="C4"/>
       <c r="D4" s="8" t="s">
         <v>8</v>
@@ -4036,7 +4043,7 @@
       <c r="I17" s="1">
         <v>0</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K17" s="1">
@@ -4062,7 +4069,7 @@
       <c r="I18" s="1">
         <v>2</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="1">
@@ -4088,8 +4095,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4101,34 +4108,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -4137,23 +4144,23 @@
       <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12"/>
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13"/>
       <c r="C4"/>
       <c r="D4" s="8" t="s">
         <v>8</v>
@@ -4503,8 +4510,8 @@
       <c r="I16" s="1">
         <v>0</v>
       </c>
-      <c r="J16" s="17" t="s">
-        <v>20</v>
+      <c r="J16" s="18">
+        <v>125</v>
       </c>
       <c r="K16" s="1">
         <v>2</v>
@@ -4529,7 +4536,7 @@
       <c r="I17" s="1">
         <v>1</v>
       </c>
-      <c r="J17" s="17" t="s">
+      <c r="J17" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K17" s="1">
@@ -4555,7 +4562,7 @@
       <c r="I18" s="1">
         <v>2</v>
       </c>
-      <c r="J18" s="17" t="s">
+      <c r="J18" s="11" t="s">
         <v>20</v>
       </c>
       <c r="K18" s="1">
@@ -4581,8 +4588,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4594,34 +4601,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="15"/>
-      <c r="C1" s="15"/>
-      <c r="D1" s="15"/>
-      <c r="E1" s="15"/>
-      <c r="F1" s="15"/>
-      <c r="G1" s="15"/>
-      <c r="H1" s="15"/>
-      <c r="I1" s="15"/>
-      <c r="J1" s="15"/>
-      <c r="K1" s="15"/>
+      <c r="B1" s="16"/>
+      <c r="C1" s="16"/>
+      <c r="D1" s="16"/>
+      <c r="E1" s="16"/>
+      <c r="F1" s="16"/>
+      <c r="G1" s="16"/>
+      <c r="H1" s="16"/>
+      <c r="I1" s="16"/>
+      <c r="J1" s="16"/>
+      <c r="K1" s="16"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="16"/>
-      <c r="G2" s="16"/>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -4630,23 +4637,23 @@
       <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
+      <c r="J3" s="15"/>
+      <c r="K3" s="15"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="12"/>
+      <c r="A4" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="13"/>
       <c r="C4"/>
       <c r="D4" s="8" t="s">
         <v>8</v>
@@ -5022,8 +5029,8 @@
       <c r="I17" s="1">
         <v>3</v>
       </c>
-      <c r="J17" s="17" t="s">
-        <v>20</v>
+      <c r="J17" s="18">
+        <v>312</v>
       </c>
       <c r="K17" s="1">
         <v>8</v>
@@ -5048,8 +5055,8 @@
       <c r="I18" s="1">
         <v>4</v>
       </c>
-      <c r="J18" s="17" t="s">
-        <v>20</v>
+      <c r="J18" s="18">
+        <v>482</v>
       </c>
       <c r="K18" s="1">
         <v>15</v>

--- a/TP2B/Documentacion/AnalisisRendimiento.xlsx
+++ b/TP2B/Documentacion/AnalisisRendimiento.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ORDENADOS" sheetId="1" r:id="rId1"/>
     <sheet name="ORDEN INVERSO" sheetId="9" r:id="rId2"/>
     <sheet name="ALEATORIO" sheetId="10" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="22">
   <si>
     <t>DATOS DEL EQUIPO DE PRUEBAS</t>
   </si>
@@ -78,7 +78,10 @@
     <t>TIEMPO (ms)</t>
   </si>
   <si>
-    <t>stackOverflow</t>
+    <t>-Xss1024m</t>
+  </si>
+  <si>
+    <t>VM arguments</t>
   </si>
 </sst>
 </file>
@@ -89,7 +92,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -131,13 +134,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -276,7 +272,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
@@ -405,48 +401,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>324</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8247</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -523,48 +477,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1762</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7077</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -641,48 +553,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -759,48 +629,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -877,48 +705,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -995,48 +781,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1113,48 +857,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1168,11 +870,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="159729104"/>
-        <c:axId val="159729664"/>
+        <c:axId val="160168736"/>
+        <c:axId val="160169296"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="159729104"/>
+        <c:axId val="160168736"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1201,12 +903,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159729664"/>
+        <c:crossAx val="160169296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="159729664"/>
+        <c:axId val="160169296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1241,7 +943,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="159729104"/>
+        <c:crossAx val="160168736"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1377,48 +1079,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>248</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>965</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>6042</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>24301</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1495,48 +1155,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>282</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1755</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>7206</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1613,48 +1231,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1731,48 +1307,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1849,48 +1383,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1967,48 +1459,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2085,48 +1535,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2140,11 +1548,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160209984"/>
-        <c:axId val="160210544"/>
+        <c:axId val="160384848"/>
+        <c:axId val="160385408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160209984"/>
+        <c:axId val="160384848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2173,12 +1581,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160210544"/>
+        <c:crossAx val="160385408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160210544"/>
+        <c:axId val="160385408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2213,7 +1621,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160209984"/>
+        <c:crossAx val="160384848"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2345,48 +1753,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>233</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>309</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>488</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2036</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>14328</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>56748</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2463,48 +1829,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>440</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2993</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>11467</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2581,48 +1905,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2699,48 +1981,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2817,48 +2057,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>4</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2935,48 +2133,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>242</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>312</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>482</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3053,48 +2209,6 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>15</c:v>
-                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3108,11 +2222,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160408368"/>
-        <c:axId val="160408928"/>
+        <c:axId val="160391568"/>
+        <c:axId val="160633024"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160408368"/>
+        <c:axId val="160391568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3141,12 +2255,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160408928"/>
+        <c:crossAx val="160633024"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160408928"/>
+        <c:axId val="160633024"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3181,7 +2295,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160408368"/>
+        <c:crossAx val="160391568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3603,7 +2717,7 @@
   <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+      <selection activeCell="B8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3704,27 +2818,13 @@
       <c r="D5" s="10">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
-        <v>1</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>1</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>1</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3736,27 +2836,13 @@
       <c r="D6" s="10">
         <v>100</v>
       </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3768,313 +2854,151 @@
       <c r="D7" s="10">
         <v>1000</v>
       </c>
-      <c r="E7" s="1">
-        <v>14</v>
-      </c>
-      <c r="F7" s="1">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>1</v>
-      </c>
-      <c r="J7" s="1">
-        <v>9</v>
-      </c>
-      <c r="K7" s="1">
-        <v>1</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="10">
         <v>2000</v>
       </c>
-      <c r="E8" s="1">
-        <v>6</v>
-      </c>
-      <c r="F8" s="1">
-        <v>4</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>26</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="10">
         <v>3000</v>
       </c>
-      <c r="E9" s="1">
-        <v>14</v>
-      </c>
-      <c r="F9" s="1">
-        <v>10</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6</v>
-      </c>
-      <c r="K9" s="1">
-        <v>2</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="10">
         <v>4000</v>
       </c>
-      <c r="E10" s="1">
-        <v>23</v>
-      </c>
-      <c r="F10" s="1">
-        <v>18</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1">
-        <v>9</v>
-      </c>
-      <c r="K10" s="1">
-        <v>7</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="10">
         <v>5000</v>
       </c>
-      <c r="E11" s="1">
-        <v>35</v>
-      </c>
-      <c r="F11" s="1">
-        <v>19</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>14</v>
-      </c>
-      <c r="K11" s="1">
-        <v>5</v>
-      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="10">
         <v>6000</v>
       </c>
-      <c r="E12" s="1">
-        <v>52</v>
-      </c>
-      <c r="F12" s="1">
-        <v>32</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>2</v>
-      </c>
-      <c r="J12" s="1">
-        <v>20</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="10">
         <v>7000</v>
       </c>
-      <c r="E13" s="1">
-        <v>54</v>
-      </c>
-      <c r="F13" s="1">
-        <v>37</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>1</v>
-      </c>
-      <c r="J13" s="1">
-        <v>29</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="10">
         <v>8000</v>
       </c>
-      <c r="E14" s="1">
-        <v>58</v>
-      </c>
-      <c r="F14" s="1">
-        <v>48</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>36</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="10">
         <v>10000</v>
       </c>
-      <c r="E15" s="1">
-        <v>85</v>
-      </c>
-      <c r="F15" s="1">
-        <v>71</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>69</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="10">
         <v>20000</v>
       </c>
-      <c r="E16" s="1">
-        <v>324</v>
-      </c>
-      <c r="F16" s="1">
-        <v>282</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>169</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="10">
         <v>50000</v>
       </c>
-      <c r="E17" s="1">
-        <v>2018</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1762</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>0</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="1">
-        <v>5</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="10">
         <v>100000</v>
       </c>
-      <c r="E18" s="1">
-        <v>8247</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7077</v>
-      </c>
-      <c r="G18" s="1">
-        <v>0</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>2</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="1">
-        <v>11</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4095,8 +3019,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4197,27 +3121,13 @@
       <c r="D5" s="10">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>1</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4229,27 +3139,13 @@
       <c r="D6" s="10">
         <v>100</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>1</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4261,313 +3157,151 @@
       <c r="D7" s="10">
         <v>1000</v>
       </c>
-      <c r="E7" s="1">
-        <v>19</v>
-      </c>
-      <c r="F7" s="1">
-        <v>16</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>11</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="10">
         <v>2000</v>
       </c>
-      <c r="E8" s="1">
-        <v>15</v>
-      </c>
-      <c r="F8" s="1">
-        <v>3</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>13</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="10">
         <v>3000</v>
       </c>
-      <c r="E9" s="1">
-        <v>46</v>
-      </c>
-      <c r="F9" s="1">
-        <v>7</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>2</v>
-      </c>
-      <c r="J9" s="1">
-        <v>7</v>
-      </c>
-      <c r="K9" s="1">
-        <v>5</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="10">
         <v>4000</v>
       </c>
-      <c r="E10" s="1">
-        <v>66</v>
-      </c>
-      <c r="F10" s="1">
-        <v>12</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1">
-        <v>12</v>
-      </c>
-      <c r="K10" s="1">
-        <v>3</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="10">
         <v>5000</v>
       </c>
-      <c r="E11" s="1">
-        <v>99</v>
-      </c>
-      <c r="F11" s="1">
-        <v>21</v>
-      </c>
-      <c r="G11" s="1">
-        <v>0</v>
-      </c>
-      <c r="H11" s="1">
-        <v>1</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>18</v>
-      </c>
-      <c r="K11" s="1">
-        <v>1</v>
-      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="10">
         <v>6000</v>
       </c>
-      <c r="E12" s="1">
-        <v>111</v>
-      </c>
-      <c r="F12" s="1">
-        <v>27</v>
-      </c>
-      <c r="G12" s="1">
-        <v>1</v>
-      </c>
-      <c r="H12" s="1">
-        <v>0</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>25</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="10">
         <v>7000</v>
       </c>
-      <c r="E13" s="1">
-        <v>122</v>
-      </c>
-      <c r="F13" s="1">
-        <v>36</v>
-      </c>
-      <c r="G13" s="1">
-        <v>0</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>0</v>
-      </c>
-      <c r="J13" s="1">
-        <v>40</v>
-      </c>
-      <c r="K13" s="1">
-        <v>1</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="10">
         <v>8000</v>
       </c>
-      <c r="E14" s="1">
-        <v>155</v>
-      </c>
-      <c r="F14" s="1">
-        <v>44</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>1</v>
-      </c>
-      <c r="J14" s="1">
-        <v>60</v>
-      </c>
-      <c r="K14" s="1">
-        <v>0</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="10">
         <v>10000</v>
       </c>
-      <c r="E15" s="1">
-        <v>248</v>
-      </c>
-      <c r="F15" s="1">
-        <v>71</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>75</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="10">
         <v>20000</v>
       </c>
-      <c r="E16" s="1">
-        <v>965</v>
-      </c>
-      <c r="F16" s="1">
-        <v>282</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1</v>
-      </c>
-      <c r="H16" s="1">
-        <v>1</v>
-      </c>
-      <c r="I16" s="1">
-        <v>0</v>
-      </c>
-      <c r="J16" s="18">
-        <v>125</v>
-      </c>
-      <c r="K16" s="1">
-        <v>2</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="10">
         <v>50000</v>
       </c>
-      <c r="E17" s="1">
-        <v>6042</v>
-      </c>
-      <c r="F17" s="1">
-        <v>1755</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>1</v>
-      </c>
-      <c r="J17" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K17" s="1">
-        <v>5</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="10">
         <v>100000</v>
       </c>
-      <c r="E18" s="1">
-        <v>24301</v>
-      </c>
-      <c r="F18" s="1">
-        <v>7206</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>4</v>
-      </c>
-      <c r="I18" s="1">
-        <v>2</v>
-      </c>
-      <c r="J18" s="11" t="s">
-        <v>20</v>
-      </c>
-      <c r="K18" s="1">
-        <v>13</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4588,8 +3322,8 @@
   <sheetPr codeName="Hoja3"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8:B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4690,27 +3424,13 @@
       <c r="D5" s="10">
         <v>10</v>
       </c>
-      <c r="E5" s="1">
-        <v>2</v>
-      </c>
-      <c r="F5" s="1">
-        <v>1</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>0</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1">
-        <v>0</v>
-      </c>
+      <c r="E5" s="1"/>
+      <c r="F5" s="1"/>
+      <c r="G5" s="1"/>
+      <c r="H5" s="1"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -4722,27 +3442,13 @@
       <c r="D6" s="10">
         <v>100</v>
       </c>
-      <c r="E6" s="1">
-        <v>1</v>
-      </c>
-      <c r="F6" s="1">
-        <v>0</v>
-      </c>
-      <c r="G6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>0</v>
-      </c>
-      <c r="J6" s="1">
-        <v>0</v>
-      </c>
-      <c r="K6" s="1">
-        <v>0</v>
-      </c>
+      <c r="E6" s="1"/>
+      <c r="F6" s="1"/>
+      <c r="G6" s="1"/>
+      <c r="H6" s="1"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -4754,313 +3460,151 @@
       <c r="D7" s="10">
         <v>1000</v>
       </c>
-      <c r="E7" s="1">
-        <v>16</v>
-      </c>
-      <c r="F7" s="1">
-        <v>15</v>
-      </c>
-      <c r="G7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>0</v>
-      </c>
-      <c r="J7" s="1">
-        <v>8</v>
-      </c>
-      <c r="K7" s="1">
-        <v>2</v>
-      </c>
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>20</v>
+      </c>
       <c r="D8" s="10">
         <v>2000</v>
       </c>
-      <c r="E8" s="1">
-        <v>19</v>
-      </c>
-      <c r="F8" s="1">
-        <v>2</v>
-      </c>
-      <c r="G8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1</v>
-      </c>
-      <c r="J8" s="1">
-        <v>21</v>
-      </c>
-      <c r="K8" s="1">
-        <v>3</v>
-      </c>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="10">
         <v>3000</v>
       </c>
-      <c r="E9" s="1">
-        <v>50</v>
-      </c>
-      <c r="F9" s="1">
-        <v>6</v>
-      </c>
-      <c r="G9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>6</v>
-      </c>
-      <c r="K9" s="1">
-        <v>6</v>
-      </c>
+      <c r="E9" s="1"/>
+      <c r="F9" s="1"/>
+      <c r="G9" s="1"/>
+      <c r="H9" s="1"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="10">
         <v>4000</v>
       </c>
-      <c r="E10" s="1">
-        <v>86</v>
-      </c>
-      <c r="F10" s="1">
-        <v>10</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-      <c r="I10" s="1">
-        <v>2</v>
-      </c>
-      <c r="J10" s="1">
-        <v>7</v>
-      </c>
-      <c r="K10" s="1">
-        <v>2</v>
-      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="10">
         <v>5000</v>
       </c>
-      <c r="E11" s="1">
-        <v>130</v>
-      </c>
-      <c r="F11" s="1">
-        <v>16</v>
-      </c>
-      <c r="G11" s="1">
-        <v>1</v>
-      </c>
-      <c r="H11" s="1">
-        <v>0</v>
-      </c>
-      <c r="I11" s="1">
-        <v>1</v>
-      </c>
-      <c r="J11" s="1">
-        <v>12</v>
-      </c>
-      <c r="K11" s="1">
-        <v>0</v>
-      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+      <c r="K11" s="1"/>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="10">
         <v>6000</v>
       </c>
-      <c r="E12" s="1">
-        <v>174</v>
-      </c>
-      <c r="F12" s="1">
-        <v>24</v>
-      </c>
-      <c r="G12" s="1">
-        <v>0</v>
-      </c>
-      <c r="H12" s="1">
-        <v>1</v>
-      </c>
-      <c r="I12" s="1">
-        <v>1</v>
-      </c>
-      <c r="J12" s="1">
-        <v>17</v>
-      </c>
-      <c r="K12" s="1">
-        <v>1</v>
-      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+      <c r="K12" s="1"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="10">
         <v>7000</v>
       </c>
-      <c r="E13" s="1">
-        <v>233</v>
-      </c>
-      <c r="F13" s="1">
-        <v>33</v>
-      </c>
-      <c r="G13" s="1">
-        <v>1</v>
-      </c>
-      <c r="H13" s="1">
-        <v>1</v>
-      </c>
-      <c r="I13" s="1">
-        <v>2</v>
-      </c>
-      <c r="J13" s="1">
-        <v>25</v>
-      </c>
-      <c r="K13" s="1">
-        <v>2</v>
-      </c>
+      <c r="E13" s="1"/>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+      <c r="K13" s="1"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="10">
         <v>8000</v>
       </c>
-      <c r="E14" s="1">
-        <v>309</v>
-      </c>
-      <c r="F14" s="1">
-        <v>44</v>
-      </c>
-      <c r="G14" s="1">
-        <v>1</v>
-      </c>
-      <c r="H14" s="1">
-        <v>1</v>
-      </c>
-      <c r="I14" s="1">
-        <v>0</v>
-      </c>
-      <c r="J14" s="1">
-        <v>32</v>
-      </c>
-      <c r="K14" s="1">
-        <v>2</v>
-      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="10">
         <v>10000</v>
       </c>
-      <c r="E15" s="1">
-        <v>488</v>
-      </c>
-      <c r="F15" s="1">
-        <v>71</v>
-      </c>
-      <c r="G15" s="1">
-        <v>0</v>
-      </c>
-      <c r="H15" s="1">
-        <v>1</v>
-      </c>
-      <c r="I15" s="1">
-        <v>0</v>
-      </c>
-      <c r="J15" s="1">
-        <v>49</v>
-      </c>
-      <c r="K15" s="1">
-        <v>1</v>
-      </c>
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="10">
         <v>20000</v>
       </c>
-      <c r="E16" s="1">
-        <v>2036</v>
-      </c>
-      <c r="F16" s="1">
-        <v>440</v>
-      </c>
-      <c r="G16" s="1">
-        <v>3</v>
-      </c>
-      <c r="H16" s="1">
-        <v>2</v>
-      </c>
-      <c r="I16" s="1">
-        <v>1</v>
-      </c>
-      <c r="J16" s="1">
-        <v>242</v>
-      </c>
-      <c r="K16" s="1">
-        <v>4</v>
-      </c>
+      <c r="E16" s="1"/>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="10">
         <v>50000</v>
       </c>
-      <c r="E17" s="1">
-        <v>14328</v>
-      </c>
-      <c r="F17" s="1">
-        <v>2993</v>
-      </c>
-      <c r="G17" s="1">
-        <v>1</v>
-      </c>
-      <c r="H17" s="1">
-        <v>1</v>
-      </c>
-      <c r="I17" s="1">
-        <v>3</v>
-      </c>
-      <c r="J17" s="18">
-        <v>312</v>
-      </c>
-      <c r="K17" s="1">
-        <v>8</v>
-      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="1"/>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="10">
         <v>100000</v>
       </c>
-      <c r="E18" s="1">
-        <v>56748</v>
-      </c>
-      <c r="F18" s="1">
-        <v>11467</v>
-      </c>
-      <c r="G18" s="1">
-        <v>1</v>
-      </c>
-      <c r="H18" s="1">
-        <v>1</v>
-      </c>
-      <c r="I18" s="1">
-        <v>4</v>
-      </c>
-      <c r="J18" s="18">
-        <v>482</v>
-      </c>
-      <c r="K18" s="1">
-        <v>15</v>
-      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/TP2B/Documentacion/AnalisisRendimiento.xlsx
+++ b/TP2B/Documentacion/AnalisisRendimiento.xlsx
@@ -1,17 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="165" windowWidth="14805" windowHeight="7950"/>
   </bookViews>
   <sheets>
     <sheet name="ORDENADOS" sheetId="1" r:id="rId1"/>
     <sheet name="ORDEN INVERSO" sheetId="9" r:id="rId2"/>
     <sheet name="ALEATORIO" sheetId="10" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -227,11 +227,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -254,6 +255,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -272,11 +274,12 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Millares" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Porcentaje" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -294,7 +297,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-AR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -401,6 +404,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>328</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2036</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8185</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -477,6 +522,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>215</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1395</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5744</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -553,6 +640,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -629,6 +758,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -705,6 +876,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -781,6 +994,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>282</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1790</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7316</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -857,6 +1112,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -870,11 +1167,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160168736"/>
-        <c:axId val="160169296"/>
+        <c:axId val="169024896"/>
+        <c:axId val="169055744"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160168736"/>
+        <c:axId val="169024896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -903,12 +1200,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160169296"/>
+        <c:crossAx val="169055744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160169296"/>
+        <c:axId val="169055744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -943,7 +1240,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160168736"/>
+        <c:crossAx val="169024896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -968,7 +1265,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-AR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1079,6 +1376,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>225</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>896</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5583</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>22702</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1155,6 +1494,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>216</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1348</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5473</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1231,6 +1612,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1307,6 +1730,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1383,6 +1848,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1459,6 +1966,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>288</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1810</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>7239</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1535,6 +2084,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1548,11 +2139,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160384848"/>
-        <c:axId val="160385408"/>
+        <c:axId val="169008512"/>
+        <c:axId val="169084416"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160384848"/>
+        <c:axId val="169008512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1581,12 +2172,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160385408"/>
+        <c:crossAx val="169084416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160385408"/>
+        <c:axId val="169084416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1621,7 +2212,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160384848"/>
+        <c:crossAx val="169008512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1646,7 +2237,7 @@
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:date1904 val="0"/>
-  <c:lang val="es-ES"/>
+  <c:lang val="es-AR"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1753,6 +2344,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>219</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>284</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>449</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1947</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12806</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53624</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1829,6 +2462,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>333</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2550</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>11036</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1905,6 +2580,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -1981,6 +2698,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2057,6 +2816,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2133,6 +2934,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>273</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2132</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>9358</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2209,6 +3052,48 @@
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>16</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -2222,11 +3107,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="160391568"/>
-        <c:axId val="160633024"/>
+        <c:axId val="169139584"/>
+        <c:axId val="169219584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="160391568"/>
+        <c:axId val="169139584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2255,12 +3140,12 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160633024"/>
+        <c:crossAx val="169219584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="160633024"/>
+        <c:axId val="169219584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2295,7 +3180,7 @@
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="160391568"/>
+        <c:crossAx val="169139584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2469,7 +3354,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2504,7 +3389,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -2716,8 +3601,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B8" sqref="A8:B8"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2729,34 +3614,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -2765,23 +3650,23 @@
       <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13"/>
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14"/>
       <c r="C4"/>
       <c r="D4" s="8" t="s">
         <v>8</v>
@@ -2818,13 +3703,27 @@
       <c r="D5" s="10">
         <v>10</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -2836,13 +3735,27 @@
       <c r="D6" s="10">
         <v>100</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -2854,151 +3767,319 @@
       <c r="D7" s="10">
         <v>1000</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="10">
         <v>2000</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="E8" s="1">
+        <v>5</v>
+      </c>
+      <c r="F8" s="1">
+        <v>74</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>11</v>
+      </c>
+      <c r="K8" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="10">
         <v>3000</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="E9" s="1">
+        <v>13</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="10">
         <v>4000</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="E10" s="1">
+        <v>20</v>
+      </c>
+      <c r="F10" s="1">
+        <v>13</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>17</v>
+      </c>
+      <c r="K10" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="10">
         <v>5000</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="E11" s="1">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>20</v>
+      </c>
+      <c r="K11" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="10">
         <v>6000</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="E12" s="1">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1">
+        <v>19</v>
+      </c>
+      <c r="G12" s="1">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>27</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="10">
         <v>7000</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="E13" s="1">
+        <v>41</v>
+      </c>
+      <c r="F13" s="1">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>37</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="10">
         <v>8000</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="E14" s="1">
+        <v>55</v>
+      </c>
+      <c r="F14" s="1">
+        <v>33</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>45</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="10">
         <v>10000</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="E15" s="1">
+        <v>81</v>
+      </c>
+      <c r="F15" s="1">
+        <v>52</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>72</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="10">
         <v>20000</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
+      <c r="E16" s="1">
+        <v>328</v>
+      </c>
+      <c r="F16" s="1">
+        <v>215</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>282</v>
+      </c>
+      <c r="K16" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="10">
         <v>50000</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="1"/>
+      <c r="E17" s="1">
+        <v>2036</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1395</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1790</v>
+      </c>
+      <c r="K17" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="10">
         <v>100000</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="1"/>
+      <c r="E18" s="1">
+        <v>8185</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5744</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>0</v>
+      </c>
+      <c r="I18" s="1">
+        <v>2</v>
+      </c>
+      <c r="J18" s="11">
+        <v>7316</v>
+      </c>
+      <c r="K18" s="1">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3019,8 +4100,8 @@
   <sheetPr codeName="Hoja2"/>
   <dimension ref="A1:K18"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3032,34 +4113,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -3068,23 +4149,23 @@
       <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13"/>
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14"/>
       <c r="C4"/>
       <c r="D4" s="8" t="s">
         <v>8</v>
@@ -3121,13 +4202,27 @@
       <c r="D5" s="10">
         <v>10</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="E5" s="1">
+        <v>2</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3139,13 +4234,27 @@
       <c r="D6" s="10">
         <v>100</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3157,151 +4266,319 @@
       <c r="D7" s="10">
         <v>1000</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="E7" s="1">
+        <v>17</v>
+      </c>
+      <c r="F7" s="1">
+        <v>11</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>0</v>
+      </c>
+      <c r="J7" s="1">
+        <v>10</v>
+      </c>
+      <c r="K7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="10">
         <v>2000</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="E8" s="1">
+        <v>15</v>
+      </c>
+      <c r="F8" s="1">
+        <v>3</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1</v>
+      </c>
+      <c r="I8" s="1">
+        <v>0</v>
+      </c>
+      <c r="J8" s="1">
+        <v>13</v>
+      </c>
+      <c r="K8" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="10">
         <v>3000</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="E9" s="1">
+        <v>35</v>
+      </c>
+      <c r="F9" s="1">
+        <v>5</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>6</v>
+      </c>
+      <c r="K9" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="10">
         <v>4000</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="E10" s="1">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1">
+        <v>8</v>
+      </c>
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>12</v>
+      </c>
+      <c r="K10" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="10">
         <v>5000</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="E11" s="1">
+        <v>64</v>
+      </c>
+      <c r="F11" s="1">
+        <v>13</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>17</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="10">
         <v>6000</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="E12" s="1">
+        <v>89</v>
+      </c>
+      <c r="F12" s="1">
+        <v>18</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>29</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="10">
         <v>7000</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="E13" s="1">
+        <v>112</v>
+      </c>
+      <c r="F13" s="1">
+        <v>26</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>1</v>
+      </c>
+      <c r="J13" s="1">
+        <v>35</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="10">
         <v>8000</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="E14" s="1">
+        <v>144</v>
+      </c>
+      <c r="F14" s="1">
+        <v>32</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>1</v>
+      </c>
+      <c r="J14" s="1">
+        <v>45</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="10">
         <v>10000</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="E15" s="1">
+        <v>225</v>
+      </c>
+      <c r="F15" s="1">
+        <v>51</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1">
+        <v>0</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>74</v>
+      </c>
+      <c r="K15" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="10">
         <v>20000</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="1"/>
+      <c r="E16" s="1">
+        <v>896</v>
+      </c>
+      <c r="F16" s="1">
+        <v>216</v>
+      </c>
+      <c r="G16" s="1">
+        <v>1</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="11">
+        <v>288</v>
+      </c>
+      <c r="K16" s="1">
+        <v>4</v>
+      </c>
     </row>
     <row r="17" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D17" s="10">
         <v>50000</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="1"/>
+      <c r="E17" s="1">
+        <v>5583</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1348</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>0</v>
+      </c>
+      <c r="I17" s="1">
+        <v>1</v>
+      </c>
+      <c r="J17" s="11">
+        <v>1810</v>
+      </c>
+      <c r="K17" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="10">
         <v>100000</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="1"/>
+      <c r="E18" s="1">
+        <v>22702</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5473</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="11">
+        <v>7239</v>
+      </c>
+      <c r="K18" s="1">
+        <v>11</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -3320,10 +4597,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Hoja3"/>
-  <dimension ref="A1:K18"/>
+  <dimension ref="A1:L18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:B8"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3335,34 +4612,34 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="16"/>
-      <c r="I1" s="16"/>
-      <c r="J1" s="16"/>
-      <c r="K1" s="16"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
+      <c r="I1" s="17"/>
+      <c r="J1" s="17"/>
+      <c r="K1" s="17"/>
     </row>
     <row r="2" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A2" s="5"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="17"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="17"/>
-      <c r="I2" s="17"/>
-      <c r="J2" s="17"/>
-      <c r="K2" s="17"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
     </row>
     <row r="3" spans="1:11" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
@@ -3371,23 +4648,23 @@
       <c r="D3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="14"/>
-      <c r="G3" s="14"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15" t="s">
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="J3" s="15"/>
-      <c r="K3" s="15"/>
+      <c r="J3" s="16"/>
+      <c r="K3" s="16"/>
     </row>
     <row r="4" spans="1:11" s="3" customFormat="1" ht="30" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" s="13"/>
+      <c r="A4" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B4" s="14"/>
       <c r="C4"/>
       <c r="D4" s="8" t="s">
         <v>8</v>
@@ -3424,13 +4701,27 @@
       <c r="D5" s="10">
         <v>10</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>0</v>
+      </c>
+      <c r="K5" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -3442,13 +4733,27 @@
       <c r="D6" s="10">
         <v>100</v>
       </c>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
+      <c r="E6" s="1">
+        <v>1</v>
+      </c>
+      <c r="F6" s="1">
+        <v>1</v>
+      </c>
+      <c r="G6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>0</v>
+      </c>
+      <c r="J6" s="1">
+        <v>0</v>
+      </c>
+      <c r="K6" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -3460,151 +4765,320 @@
       <c r="D7" s="10">
         <v>1000</v>
       </c>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
+      <c r="E7" s="1">
+        <v>24</v>
+      </c>
+      <c r="F7" s="1">
+        <v>16</v>
+      </c>
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>1</v>
+      </c>
+      <c r="J7" s="1">
+        <v>11</v>
+      </c>
+      <c r="K7" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="12" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="10">
         <v>2000</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
+      <c r="E8" s="1">
+        <v>25</v>
+      </c>
+      <c r="F8" s="1">
+        <v>4</v>
+      </c>
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1</v>
+      </c>
+      <c r="J8" s="1">
+        <v>23</v>
+      </c>
+      <c r="K8" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D9" s="10">
         <v>3000</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
+      <c r="E9" s="1">
+        <v>59</v>
+      </c>
+      <c r="F9" s="1">
+        <v>8</v>
+      </c>
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1</v>
+      </c>
+      <c r="I9" s="1">
+        <v>2</v>
+      </c>
+      <c r="J9" s="1">
+        <v>5</v>
+      </c>
+      <c r="K9" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D10" s="10">
         <v>4000</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
+      <c r="E10" s="1">
+        <v>84</v>
+      </c>
+      <c r="F10" s="1">
+        <v>9</v>
+      </c>
+      <c r="G10" s="1">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1">
+        <v>0</v>
+      </c>
+      <c r="I10" s="1">
+        <v>2</v>
+      </c>
+      <c r="J10" s="1">
+        <v>9</v>
+      </c>
+      <c r="K10" s="1">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D11" s="10">
         <v>5000</v>
       </c>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
+      <c r="E11" s="1">
+        <v>115</v>
+      </c>
+      <c r="F11" s="1">
+        <v>16</v>
+      </c>
+      <c r="G11" s="1">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1">
+        <v>0</v>
+      </c>
+      <c r="I11" s="1">
+        <v>1</v>
+      </c>
+      <c r="J11" s="1">
+        <v>13</v>
+      </c>
+      <c r="K11" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" s="10">
         <v>6000</v>
       </c>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
+      <c r="E12" s="1">
+        <v>160</v>
+      </c>
+      <c r="F12" s="1">
+        <v>22</v>
+      </c>
+      <c r="G12" s="1">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1</v>
+      </c>
+      <c r="I12" s="1">
+        <v>1</v>
+      </c>
+      <c r="J12" s="1">
+        <v>20</v>
+      </c>
+      <c r="K12" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D13" s="10">
         <v>7000</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
+      <c r="E13" s="1">
+        <v>219</v>
+      </c>
+      <c r="F13" s="1">
+        <v>33</v>
+      </c>
+      <c r="G13" s="1">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1">
+        <v>1</v>
+      </c>
+      <c r="I13" s="1">
+        <v>0</v>
+      </c>
+      <c r="J13" s="1">
+        <v>28</v>
+      </c>
+      <c r="K13" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D14" s="10">
         <v>8000</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
+      <c r="E14" s="1">
+        <v>284</v>
+      </c>
+      <c r="F14" s="1">
+        <v>43</v>
+      </c>
+      <c r="G14" s="1">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1</v>
+      </c>
+      <c r="I14" s="1">
+        <v>0</v>
+      </c>
+      <c r="J14" s="1">
+        <v>35</v>
+      </c>
+      <c r="K14" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D15" s="10">
         <v>10000</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
+      <c r="E15" s="1">
+        <v>449</v>
+      </c>
+      <c r="F15" s="1">
+        <v>68</v>
+      </c>
+      <c r="G15" s="1">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1">
+        <v>1</v>
+      </c>
+      <c r="I15" s="1">
+        <v>0</v>
+      </c>
+      <c r="J15" s="1">
+        <v>60</v>
+      </c>
+      <c r="K15" s="1">
+        <v>2</v>
+      </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D16" s="10">
         <v>20000</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-    </row>
-    <row r="17" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E16" s="1">
+        <v>1947</v>
+      </c>
+      <c r="F16" s="1">
+        <v>333</v>
+      </c>
+      <c r="G16" s="1">
+        <v>2</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1</v>
+      </c>
+      <c r="I16" s="1">
+        <v>0</v>
+      </c>
+      <c r="J16" s="1">
+        <v>273</v>
+      </c>
+      <c r="K16" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D17" s="10">
         <v>50000</v>
       </c>
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-      <c r="I17" s="1"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="1"/>
-    </row>
-    <row r="18" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="E17" s="1">
+        <v>12806</v>
+      </c>
+      <c r="F17" s="1">
+        <v>2550</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1">
+        <v>1</v>
+      </c>
+      <c r="I17" s="1">
+        <v>2</v>
+      </c>
+      <c r="J17" s="11">
+        <v>2132</v>
+      </c>
+      <c r="K17" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="4:12" x14ac:dyDescent="0.25">
       <c r="D18" s="10">
         <v>100000</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="1"/>
+      <c r="E18" s="1">
+        <v>53624</v>
+      </c>
+      <c r="F18" s="1">
+        <v>11036</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2</v>
+      </c>
+      <c r="H18" s="1">
+        <v>1</v>
+      </c>
+      <c r="I18" s="1">
+        <v>5</v>
+      </c>
+      <c r="J18" s="11">
+        <v>9358</v>
+      </c>
+      <c r="K18" s="1">
+        <v>16</v>
+      </c>
+      <c r="L18" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="5">

--- a/TP2B/Documentacion/AnalisisRendimiento.xlsx
+++ b/TP2B/Documentacion/AnalisisRendimiento.xlsx
@@ -313,11 +313,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -346,11 +345,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -365,11 +363,11 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -383,30 +381,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>ORDENADOS!$D$5:$D$18</c:f>
               <c:numCache>
@@ -456,8 +468,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>ORDENADOS!$E$5:$E$18</c:f>
               <c:numCache>
@@ -507,11 +519,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -525,30 +537,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>ORDENADOS!$D$5:$D$18</c:f>
               <c:numCache>
@@ -598,8 +624,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>ORDENADOS!$F$5:$F$18</c:f>
               <c:numCache>
@@ -612,10 +638,10 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="3">
                   <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>7</c:v>
@@ -649,11 +675,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -667,30 +693,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>ORDENADOS!$D$5:$D$18</c:f>
               <c:numCache>
@@ -740,8 +780,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>ORDENADOS!$G$5:$G$18</c:f>
               <c:numCache>
@@ -791,11 +831,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -809,30 +849,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>ORDENADOS!$D$5:$D$18</c:f>
               <c:numCache>
@@ -882,8 +936,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>ORDENADOS!$H$5:$H$18</c:f>
               <c:numCache>
@@ -933,7 +987,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -944,18 +998,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="160516544"/>
-        <c:axId val="160517104"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="160516544"/>
+        <c:axId val="159526976"/>
+        <c:axId val="159527536"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="159526976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -964,9 +1031,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -980,9 +1046,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -993,15 +1058,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160517104"/>
+        <c:crossAx val="159527536"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="160517104"/>
+        <c:axId val="159527536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1011,9 +1073,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1027,8 +1090,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1039,9 +1107,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1052,9 +1119,9 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="160516544"/>
+        <c:crossAx val="159526976"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1065,7 +1132,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -1082,9 +1149,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1102,11 +1168,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1154,11 +1223,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1173,6 +1241,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1186,11 +1255,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1205,11 +1273,11 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1223,30 +1291,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>ORDENADOS!$D$5:$D$20</c:f>
               <c:numCache>
@@ -1302,8 +1384,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>ORDENADOS!$I$5:$I$20</c:f>
               <c:numCache>
@@ -1352,18 +1434,18 @@
                   <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>47</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>47</c:v>
+                  <c:v>78</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -1377,36 +1459,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
                 </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
                   </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>ORDENADOS!$D$5:$D$20</c:f>
               <c:numCache>
@@ -1462,8 +1552,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>ORDENADOS!$J$5:$J$20</c:f>
               <c:numCache>
@@ -1512,18 +1602,18 @@
                   <c:v>7037</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>196472</c:v>
+                  <c:v>310001</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>855122</c:v>
+                  <c:v>1184521</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -1537,36 +1627,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
                 </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
                   </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>ORDENADOS!$D$5:$D$20</c:f>
               <c:numCache>
@@ -1622,8 +1720,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>ORDENADOS!$K$5:$K$20</c:f>
               <c:numCache>
@@ -1672,14 +1770,14 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>143</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>202</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -1690,18 +1788,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="162130672"/>
-        <c:axId val="162131232"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="162130672"/>
+        <c:axId val="159531456"/>
+        <c:axId val="159532016"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="159531456"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -1710,9 +1821,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1726,9 +1836,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1739,15 +1848,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162131232"/>
+        <c:crossAx val="159532016"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="162131232"/>
+        <c:axId val="159532016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1757,9 +1863,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -1773,8 +1880,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1785,9 +1897,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1798,9 +1909,9 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162130672"/>
+        <c:crossAx val="159531456"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1811,7 +1922,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1827,9 +1939,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1847,11 +1958,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -1899,11 +2013,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -1932,11 +2045,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -1951,11 +2063,11 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -1969,30 +2081,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'ORDEN INVERSO'!$D$5:$D$18</c:f>
               <c:numCache>
@@ -2042,8 +2168,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'ORDEN INVERSO'!$E$5:$E$18</c:f>
               <c:numCache>
@@ -2093,11 +2219,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -2111,30 +2237,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'ORDEN INVERSO'!$D$5:$D$18</c:f>
               <c:numCache>
@@ -2184,8 +2324,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'ORDEN INVERSO'!$F$5:$F$18</c:f>
               <c:numCache>
@@ -2235,11 +2375,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -2253,30 +2393,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'ORDEN INVERSO'!$D$5:$D$18</c:f>
               <c:numCache>
@@ -2326,8 +2480,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'ORDEN INVERSO'!$G$5:$G$18</c:f>
               <c:numCache>
@@ -2377,11 +2531,11 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -2395,30 +2549,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'ORDEN INVERSO'!$D$5:$D$18</c:f>
               <c:numCache>
@@ -2468,8 +2636,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'ORDEN INVERSO'!$H$5:$H$18</c:f>
               <c:numCache>
@@ -2519,7 +2687,7 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -2530,18 +2698,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="162135712"/>
-        <c:axId val="162136272"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="162135712"/>
+        <c:axId val="160716576"/>
+        <c:axId val="160717136"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="160716576"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -2550,9 +2731,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -2566,9 +2746,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2579,15 +2758,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162136272"/>
+        <c:crossAx val="160717136"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="162136272"/>
+        <c:axId val="160717136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2597,9 +2773,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -2613,8 +2790,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -2625,9 +2807,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2638,9 +2819,9 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162135712"/>
+        <c:crossAx val="160716576"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -2651,7 +2832,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -2668,9 +2849,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2688,11 +2868,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -2740,11 +2923,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -2759,6 +2941,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2772,11 +2955,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -2791,11 +2973,11 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -2809,30 +2991,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
               <c:numCache>
@@ -2888,8 +3084,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'ORDEN INVERSO'!$I$5:$I$20</c:f>
               <c:numCache>
@@ -2938,18 +3134,18 @@
                   <c:v>10</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>93</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>124</c:v>
+                  <c:v>234</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -2963,36 +3159,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
                 </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
                   </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
               <c:numCache>
@@ -3048,8 +3252,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'ORDEN INVERSO'!$J$5:$J$20</c:f>
               <c:numCache>
@@ -3098,18 +3302,18 @@
                   <c:v>7526</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>196447</c:v>
+                  <c:v>282279</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>902516</c:v>
+                  <c:v>1201477</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -3123,36 +3327,44 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
                 </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
                   </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
               <c:f>'ORDEN INVERSO'!$D$5:$D$20</c:f>
               <c:numCache>
@@ -3208,8 +3420,8 @@
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
               <c:f>'ORDEN INVERSO'!$K$5:$K$20</c:f>
               <c:numCache>
@@ -3258,14 +3470,14 @@
                   <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>219</c:v>
+                  <c:v>203</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>209</c:v>
+                  <c:v>421</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -3276,18 +3488,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="161987216"/>
-        <c:axId val="161987776"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="161987216"/>
+        <c:axId val="160721056"/>
+        <c:axId val="160721616"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="160721056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -3296,9 +3521,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -3312,9 +3536,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3325,15 +3548,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161987776"/>
+        <c:crossAx val="160721616"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="161987776"/>
+        <c:axId val="160721616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3343,9 +3563,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -3359,8 +3580,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -3371,9 +3597,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3384,9 +3609,9 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="161987216"/>
+        <c:crossAx val="160721056"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -3397,7 +3622,8 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3413,9 +3639,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3433,11 +3658,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -3485,11 +3713,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -3518,11 +3745,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -3537,11 +3763,11 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="1"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -3555,35 +3781,49 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>ALEATORIO!$D$5:$D$18</c:f>
+              <c:f>ALEATORIO!$D$5:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3624,17 +3864,23 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>ALEATORIO!$E$5:$E$18</c:f>
+              <c:f>ALEATORIO!$E$5:$E$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>3</c:v>
                 </c:pt>
@@ -3672,18 +3918,24 @@
                   <c:v>2078</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>14099</c:v>
+                  <c:v>13322</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>19252</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>30304</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>58008</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="2"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -3697,35 +3949,49 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent3"/>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent3"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>ALEATORIO!$D$5:$D$18</c:f>
+              <c:f>ALEATORIO!$D$5:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3766,17 +4032,23 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>ALEATORIO!$F$5:$F$18</c:f>
+              <c:f>ALEATORIO!$F$5:$F$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -3814,18 +4086,24 @@
                   <c:v>1214</c:v>
                 </c:pt>
                 <c:pt idx="12">
+                  <c:v>3170</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4650</c:v>
+                </c:pt>
+                <c:pt idx="14">
                   <c:v>7629</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>30309</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="3"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -3839,35 +4117,49 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent4"/>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent4"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>ALEATORIO!$D$5:$D$18</c:f>
+              <c:f>ALEATORIO!$D$5:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -3908,17 +4200,23 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>ALEATORIO!$G$5:$G$18</c:f>
+              <c:f>ALEATORIO!$G$5:$G$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -3956,18 +4254,24 @@
                   <c:v>676</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4963</c:v>
+                  <c:v>4589</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>6945</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>10229</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>21338</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:ser>
-          <c:idx val="4"/>
+          <c:idx val="3"/>
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
@@ -3981,35 +4285,49 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent4">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent5"/>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent5"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent4">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>ALEATORIO!$D$5:$D$18</c:f>
+              <c:f>ALEATORIO!$D$5:$D$20</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4050,17 +4368,23 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>ALEATORIO!$H$5:$H$18</c:f>
+              <c:f>ALEATORIO!$H$5:$H$20</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="14"/>
+                <c:ptCount val="16"/>
                 <c:pt idx="0">
                   <c:v>0</c:v>
                 </c:pt>
@@ -4098,14 +4422,20 @@
                   <c:v>590</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>4240</c:v>
+                  <c:v>3776</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>5480</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>8864</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>18374</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
+          </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
         <c:dLbls>
@@ -4116,18 +4446,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="162160256"/>
-        <c:axId val="162160816"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="162160256"/>
+        <c:axId val="160472480"/>
+        <c:axId val="160473040"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="160472480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4136,9 +4479,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4152,9 +4494,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4165,15 +4506,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162160816"/>
+        <c:crossAx val="160473040"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="162160816"/>
+        <c:axId val="160473040"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4183,9 +4521,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -4199,8 +4538,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4211,9 +4555,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4224,9 +4567,9 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162160256"/>
+        <c:crossAx val="160472480"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4237,7 +4580,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -4254,9 +4597,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4274,11 +4616,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -4326,11 +4671,10 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="85000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4359,11 +4703,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="none" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="85000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -4378,11 +4721,11 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="5"/>
+          <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
@@ -4396,35 +4739,49 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1"/>
               </a:solidFill>
-              <a:round/>
             </a:ln>
-            <a:effectLst/>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
+                </a:schemeClr>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent6"/>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent6"/>
-                </a:solidFill>
+              <a:ln>
+                <a:noFill/>
               </a:ln>
-              <a:effectLst/>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent1">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
+                  </a:schemeClr>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:f>ALEATORIO!$D$5:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4465,23 +4822,29 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>500000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>ALEATORIO!$I$5:$I$20</c:f>
+              <c:f>ALEATORIO!$I$5:$I$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4521,22 +4884,22 @@
                 <c:pt idx="12">
                   <c:v>22</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>46</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>608</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1498</c:v>
+                <c:pt idx="16">
+                  <c:v>593</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1638</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="6"/>
+          <c:idx val="1"/>
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
@@ -4550,41 +4913,49 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent2">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
                 </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent1">
+                <a:schemeClr val="accent2">
                   <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1">
-                    <a:lumMod val="60000"/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent2">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
                   </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:f>ALEATORIO!$D$5:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4625,23 +4996,29 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>500000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>ALEATORIO!$J$5:$J$20</c:f>
+              <c:f>ALEATORIO!$J$5:$J$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4681,22 +5058,22 @@
                 <c:pt idx="12">
                   <c:v>7</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>16</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>945114</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>4274398</c:v>
+                <c:pt idx="16">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>436</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:ser>
-          <c:idx val="7"/>
+          <c:idx val="2"/>
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
@@ -4710,41 +5087,49 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="22225" cap="rnd">
               <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst>
+              <a:glow rad="139700">
+                <a:schemeClr val="accent3">
+                  <a:satMod val="175000"/>
+                  <a:alpha val="14000"/>
                 </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
+              </a:glow>
+            </a:effectLst>
           </c:spPr>
           <c:marker>
             <c:symbol val="circle"/>
-            <c:size val="5"/>
+            <c:size val="3"/>
             <c:spPr>
               <a:solidFill>
-                <a:schemeClr val="accent2">
+                <a:schemeClr val="accent3">
                   <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
                 </a:schemeClr>
               </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent2">
-                    <a:lumMod val="60000"/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst>
+                <a:glow rad="63500">
+                  <a:schemeClr val="accent3">
+                    <a:satMod val="175000"/>
+                    <a:alpha val="25000"/>
                   </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
+                </a:glow>
+              </a:effectLst>
             </c:spPr>
           </c:marker>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>ALEATORIO!$D$5:$D$20</c:f>
+              <c:f>ALEATORIO!$D$5:$D$22</c:f>
               <c:numCache>
                 <c:formatCode>_ * #,##0_ ;_ * \-#,##0_ ;_ * "-"??_ ;_ @_ </c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>10</c:v>
                 </c:pt>
@@ -4785,23 +5170,29 @@
                   <c:v>50000</c:v>
                 </c:pt>
                 <c:pt idx="13">
+                  <c:v>60000</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>75000</c:v>
+                </c:pt>
+                <c:pt idx="15">
                   <c:v>100000</c:v>
                 </c:pt>
-                <c:pt idx="14">
+                <c:pt idx="16">
                   <c:v>500000</c:v>
                 </c:pt>
-                <c:pt idx="15">
+                <c:pt idx="17">
                   <c:v>1000000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>ALEATORIO!$K$5:$K$20</c:f>
+              <c:f>ALEATORIO!$K$5:$K$22</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="16"/>
+                <c:ptCount val="18"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
@@ -4841,19 +5232,19 @@
                 <c:pt idx="12">
                   <c:v>13</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="15">
                   <c:v>26</c:v>
                 </c:pt>
-                <c:pt idx="14">
-                  <c:v>234</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>544</c:v>
+                <c:pt idx="16">
+                  <c:v>390</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>548</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:smooth val="1"/>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -4863,18 +5254,31 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="162164736"/>
-        <c:axId val="162165296"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="162164736"/>
+        <c:axId val="160641424"/>
+        <c:axId val="160641984"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="160641424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ " sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -4883,9 +5287,8 @@
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -4899,9 +5302,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4912,15 +5314,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162165296"/>
+        <c:crossAx val="160641984"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
       <c:valAx>
-        <c:axId val="162165296"/>
+        <c:axId val="160641984"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4930,9 +5329,10 @@
           <c:spPr>
             <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
+                <a:schemeClr val="dk1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                  <a:alpha val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:round/>
@@ -4946,8 +5346,13 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -4958,9 +5363,8 @@
             <a:pPr>
               <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                 <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
+                  <a:schemeClr val="lt1">
+                    <a:lumMod val="75000"/>
                   </a:schemeClr>
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
@@ -4971,9 +5375,9 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="162164736"/>
+        <c:crossAx val="160641424"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -4984,7 +5388,7 @@
       </c:spPr>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="b"/>
+      <c:legendPos val="t"/>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5001,9 +5405,8 @@
           <a:pPr>
             <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
+                <a:schemeClr val="lt1">
+                  <a:lumMod val="75000"/>
                 </a:schemeClr>
               </a:solidFill>
               <a:latin typeface="+mn-lt"/>
@@ -5021,11 +5424,14 @@
   </c:chart>
   <c:spPr>
     <a:solidFill>
-      <a:schemeClr val="bg1"/>
+      <a:schemeClr val="dk1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:solidFill>
-        <a:schemeClr val="tx1">
+        <a:schemeClr val="dk1">
           <a:lumMod val="15000"/>
           <a:lumOff val="85000"/>
         </a:schemeClr>
@@ -5293,33 +5699,46 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5328,21 +5747,536 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5350,16 +6284,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5369,23 +6302,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -5393,71 +6321,131 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5473,16 +6461,360 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5491,13 +6823,27 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -5506,67 +6852,236 @@
           <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:errorBar>
   <cs:floor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -5578,7 +7093,266 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5586,105 +7360,268 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -5694,26 +7631,138 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
   </cs:seriesLine>
   <cs:title>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -5722,14 +7771,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -5738,9 +7788,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5754,15 +7803,17 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -5771,58 +7822,75 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:wall>
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
   </cs:axisTitle>
   <cs:categoryAxis>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5831,21 +7899,536 @@
       </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="245">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" b="1" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:chartArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="bg1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
+          <a:schemeClr val="dk1">
             <a:lumMod val="15000"/>
             <a:lumOff val="85000"/>
           </a:schemeClr>
@@ -5853,16 +8436,15 @@
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:chartArea>
   <cs:dataLabel>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
+      <a:schemeClr val="lt1">
         <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -5872,23 +8454,18 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="15000"/>
+        <a:lumOff val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
     </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
     <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
@@ -5896,71 +8473,131 @@
     </cs:bodyPr>
   </cs:dataLabelCallout>
   <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
+    <cs:effectRef idx="0">
       <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:miter lim="800000"/>
+      </a:ln>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+    <cs:fillRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="22225" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:round/>
       </a:ln>
+      <a:effectLst>
+        <a:glow rad="139700">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="14000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1">
+    <cs:fillRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
+    <cs:effectRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:effectRef>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr">
+          <a:lumMod val="60000"/>
+          <a:lumOff val="40000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:effectLst>
+        <a:glow rad="63500">
+          <a:schemeClr val="phClr">
+            <a:satMod val="175000"/>
+            <a:alpha val="25000"/>
+          </a:schemeClr>
+        </a:glow>
+      </a:effectLst>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="3"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -5976,26 +8613,47 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="50000"/>
+          <a:lumOff val="50000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
+  </cs:downBar>
+  <cs:dropLine>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
@@ -6003,35 +8661,10 @@
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6043,14 +8676,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6062,14 +8694,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
   </cs:floor>
   <cs:gridlineMajor>
     <cs:lnRef idx="0"/>
@@ -6081,9 +8707,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6100,9 +8727,10 @@
     <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+            <a:alpha val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6114,14 +8742,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6133,14 +8760,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6152,27 +8778,26 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
   </cs:plotArea3D>
   <cs:seriesAxis>
@@ -6180,9 +8805,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6192,14 +8816,13 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -6211,12 +8834,11 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="85000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+    <cs:defRPr sz="1400" b="1" kern="1200" cap="none" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -6225,14 +8847,15 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
-        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -6241,9 +8864,8 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
       </a:schemeClr>
     </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
@@ -6257,2055 +8879,49 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="lt1"/>
+        <a:schemeClr val="lt1">
+          <a:lumMod val="85000"/>
+        </a:schemeClr>
       </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+          <a:schemeClr val="lt1">
+            <a:lumMod val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
     </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
     <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr/>
   </cs:valueAxis>
   <cs:wall>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
       <a:schemeClr val="dk1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
   </cs:wall>
 </cs:chartStyle>
 </file>
@@ -8315,19 +8931,19 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
+      <xdr:colOff>238124</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>552449</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8344,20 +8960,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1019174</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -8380,22 +8996,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>142874</xdr:colOff>
+      <xdr:colOff>352424</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:rowOff>128587</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>19049</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>514349</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8411,23 +9025,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8449,22 +9061,20 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>52387</xdr:rowOff>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>185737</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8480,23 +9090,21 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>209549</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95251</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Gráfico 2"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvPr id="10" name="Gráfico 9"/>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -8803,8 +9411,8 @@
   <sheetPr codeName="Hoja1"/>
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8973,7 +9581,7 @@
         <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="G7" s="1">
         <v>0</v>
@@ -9005,7 +9613,7 @@
         <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>75</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1">
         <v>0</v>
@@ -9288,13 +9896,13 @@
         <v>500000</v>
       </c>
       <c r="I19" s="1">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="J19" s="1">
-        <v>196472</v>
+        <v>310001</v>
       </c>
       <c r="K19" s="1">
-        <v>143</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
@@ -9302,13 +9910,13 @@
         <v>1000000</v>
       </c>
       <c r="I20" s="1">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="J20" s="1">
-        <v>855122</v>
+        <v>1184521</v>
       </c>
       <c r="K20" s="1">
-        <v>202</v>
+        <v>312</v>
       </c>
     </row>
   </sheetData>
@@ -9329,8 +9937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K20"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+    <sheetView topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9814,13 +10422,13 @@
         <v>500000</v>
       </c>
       <c r="I19" s="1">
-        <v>93</v>
+        <v>109</v>
       </c>
       <c r="J19" s="1">
-        <v>196447</v>
+        <v>282279</v>
       </c>
       <c r="K19" s="1">
-        <v>219</v>
+        <v>203</v>
       </c>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
@@ -9828,13 +10436,13 @@
         <v>1000000</v>
       </c>
       <c r="I20" s="1">
-        <v>124</v>
+        <v>234</v>
       </c>
       <c r="J20" s="1">
-        <v>902516</v>
+        <v>1201477</v>
       </c>
       <c r="K20" s="1">
-        <v>209</v>
+        <v>421</v>
       </c>
     </row>
   </sheetData>
@@ -9853,10 +10461,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:K1"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10288,16 +10896,16 @@
         <v>50000</v>
       </c>
       <c r="E17" s="1">
-        <v>14099</v>
+        <v>13322</v>
       </c>
       <c r="F17" s="1">
-        <v>7629</v>
+        <v>3170</v>
       </c>
       <c r="G17" s="1">
-        <v>4963</v>
+        <v>4589</v>
       </c>
       <c r="H17" s="1">
-        <v>4240</v>
+        <v>3776</v>
       </c>
       <c r="I17" s="1">
         <v>22</v>
@@ -10311,56 +10919,96 @@
     </row>
     <row r="18" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D18" s="10">
-        <v>100000</v>
+        <v>60000</v>
       </c>
       <c r="E18" s="1">
-        <v>58008</v>
-      </c>
-      <c r="F18" s="1">
-        <v>30309</v>
+        <v>19252</v>
+      </c>
+      <c r="F18">
+        <v>4650</v>
       </c>
       <c r="G18" s="1">
-        <v>21338</v>
+        <v>6945</v>
       </c>
       <c r="H18" s="1">
-        <v>18374</v>
-      </c>
-      <c r="I18" s="1">
-        <v>46</v>
-      </c>
-      <c r="J18" s="11">
-        <v>16</v>
-      </c>
-      <c r="K18" s="1">
-        <v>26</v>
-      </c>
+        <v>5480</v>
+      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="1"/>
     </row>
     <row r="19" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D19" s="10">
-        <v>500000</v>
-      </c>
-      <c r="I19" s="1">
-        <v>608</v>
-      </c>
-      <c r="J19" s="1">
-        <v>945114</v>
-      </c>
-      <c r="K19" s="1">
-        <v>234</v>
-      </c>
+        <v>75000</v>
+      </c>
+      <c r="E19" s="1">
+        <v>30304</v>
+      </c>
+      <c r="F19" s="1">
+        <v>7629</v>
+      </c>
+      <c r="G19" s="1">
+        <v>10229</v>
+      </c>
+      <c r="H19" s="1">
+        <v>8864</v>
+      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="1"/>
     </row>
     <row r="20" spans="4:11" x14ac:dyDescent="0.25">
       <c r="D20" s="10">
+        <v>100000</v>
+      </c>
+      <c r="E20" s="1">
+        <v>58008</v>
+      </c>
+      <c r="F20" s="1">
+        <v>30309</v>
+      </c>
+      <c r="G20" s="1">
+        <v>21338</v>
+      </c>
+      <c r="H20" s="1">
+        <v>18374</v>
+      </c>
+      <c r="I20" s="1">
+        <v>46</v>
+      </c>
+      <c r="J20" s="11">
+        <v>16</v>
+      </c>
+      <c r="K20" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D21" s="10">
+        <v>500000</v>
+      </c>
+      <c r="I21" s="1">
+        <v>593</v>
+      </c>
+      <c r="J21" s="1">
+        <v>204</v>
+      </c>
+      <c r="K21" s="1">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D22" s="10">
         <v>1000000</v>
       </c>
-      <c r="I20" s="1">
-        <v>1498</v>
-      </c>
-      <c r="J20" s="1">
-        <v>4274398</v>
-      </c>
-      <c r="K20" s="1">
-        <v>544</v>
+      <c r="I22" s="1">
+        <v>1638</v>
+      </c>
+      <c r="J22" s="1">
+        <v>436</v>
+      </c>
+      <c r="K22" s="1">
+        <v>548</v>
       </c>
     </row>
   </sheetData>
